--- a/sheet/AlgoSheet.xlsx
+++ b/sheet/AlgoSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workspace\repo\algo\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F9FA2D-DF8F-4FDF-A1FB-4E56E64E009B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F22809-1647-440E-A685-E7E9974D8FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
     <sheet name="Tips" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Algo!$A$3:$P$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Algo!$A$4:$P$84</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="316">
   <si>
     <t>https://www.reddit.com/r/csMajors/comments/uy7gg3/leetcode_tips_from_author_of_blind_75/</t>
   </si>
@@ -553,18 +553,12 @@
     <t>longest incresing seq</t>
   </si>
   <si>
-    <t>Palindromic Substrings</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/longest-common-subsequence/</t>
   </si>
   <si>
     <t>1143. Longest Common Subsequence</t>
   </si>
   <si>
-    <t>com.mine.dp.longestcommon.common</t>
-  </si>
-  <si>
     <t>Longest Common Subsequence</t>
   </si>
   <si>
@@ -800,13 +794,211 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/invert-binary-tree/</t>
+  </si>
+  <si>
+    <t>226. Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>104. Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/</t>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subtree-of-another-tree/</t>
+  </si>
+  <si>
+    <t>572. Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
+  </si>
+  <si>
+    <t>230. Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Preorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>124. Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>297. Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
+  </si>
+  <si>
+    <t>102. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Level Order Traversal</t>
+  </si>
+  <si>
+    <t>com.mine.binarytree.bfs.BTLevelOrderTraversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
+  </si>
+  <si>
+    <t>208. Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-add-and-search-words-data-structure/</t>
+  </si>
+  <si>
+    <t>211. Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search-ii/</t>
+  </si>
+  <si>
+    <t>212. Word Search II</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1pEzcVLdj7T4fv5mrNhsOvffBnsUH07GZk7c2jD-adE0/edit#gid=0</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-alternating-subsequence-sum/</t>
+  </si>
+  <si>
+    <t>1911. Maximum Alternating Subsequence Sum</t>
+  </si>
+  <si>
+    <t>Top 5 DP: Fibonacci Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-equal-subset-sum/</t>
+  </si>
+  <si>
+    <t>416. Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>Top 5 DP: Zero / One Knapsack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/target-sum/</t>
+  </si>
+  <si>
+    <t>494. Target Sum</t>
+  </si>
+  <si>
+    <t>Top 5 DP: Unbounded Knapsack</t>
+  </si>
+  <si>
+    <t>com.mine.dp.counting.coinchange2.*</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change-2/</t>
+  </si>
+  <si>
+    <t>518. Coin Change 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D </t>
+  </si>
+  <si>
+    <t>983. Minimum Cost For Tickets</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-for-tickets/</t>
+  </si>
+  <si>
+    <t>Top 5 DP: Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>com.mine.dp.longestcommon.common.*</t>
+  </si>
+  <si>
+    <t>com.mine.dp.longestcommon.editdistance.EditDistance</t>
+  </si>
+  <si>
+    <t>72. Edit Distance</t>
+  </si>
+  <si>
+    <t>115. Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distinct-subsequences/</t>
+  </si>
+  <si>
+    <t>Top 5 DP: Palindromes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-subsequence/</t>
+  </si>
+  <si>
+    <t>516. Longest Palindromic Subsequence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -846,12 +1038,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -946,9 +1132,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -959,23 +1145,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1344,7 +1533,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1457,10 +1646,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1469,678 +1658,721 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="16" max="16" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="85.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75">
       <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="3" spans="1:16" ht="12.75">
-      <c r="A3" s="2" t="s">
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" ht="12.75">
+      <c r="A2" s="9"/>
+      <c r="B2" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="4" spans="1:16" ht="12.75">
+      <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="N3" s="19" t="s">
+      <c r="L4" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="51" hidden="1">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:16" ht="51" hidden="1">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="H4" s="20" t="s">
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="H5" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="N4" s="20" t="s">
+      <c r="I5" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="N5" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O4" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="12.75" hidden="1">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="O5" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="12.75" hidden="1">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="51" hidden="1">
+    <row r="7" spans="1:16" ht="12.75" hidden="1">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="12.75" hidden="1">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="51" hidden="1">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="12.75" hidden="1">
       <c r="A9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="12.75" hidden="1">
+      <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="38.25" hidden="1">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:16" ht="38.25" hidden="1">
+      <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="E11" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="N10" s="20" t="s">
+      <c r="I11" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="O10" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="12.75" hidden="1">
-      <c r="A11" s="2" t="s">
+      <c r="O11" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="12.75" hidden="1">
+      <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="38.25" hidden="1">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:16" ht="38.25" hidden="1">
+      <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E12" t="s">
-        <v>236</v>
-      </c>
-      <c r="H12" s="20" t="s">
+      <c r="E13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I13" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="N12" s="20" t="s">
+    </row>
+    <row r="14" spans="1:16" ht="32.25" hidden="1" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="63.75" hidden="1">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N15" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="O12" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="32.25" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="O15" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" t="s">
+        <v>273</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12.75" hidden="1">
+      <c r="A20" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>283</v>
+      </c>
+      <c r="H21" t="s">
+        <v>140</v>
+      </c>
+      <c r="I21" t="s">
+        <v>282</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A23" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75" hidden="1">
+      <c r="A25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="H26" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="63.75" hidden="1">
-      <c r="A14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="N14" s="20" t="s">
+      <c r="I26" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="N26" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A17" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="12.75" hidden="1">
-      <c r="A19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A22" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="12.75" hidden="1">
-      <c r="A24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A25" s="16" t="s">
+      <c r="O26" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="H25" t="s">
-        <v>130</v>
-      </c>
-      <c r="I25" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="N25" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O25" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A26" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O26" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P26" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A27" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A28" s="16" t="s">
+      <c r="E27" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="H27" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="N27" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O27" s="19"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P28" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A30" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A31" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A32" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="12.75" hidden="1">
-      <c r="A29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A30" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A31" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="12.75" hidden="1">
-      <c r="A32" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="12.75" hidden="1">
       <c r="A33" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="38.25" hidden="1">
-      <c r="A34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>226</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="N34" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O34" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P34" s="20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="12.75" hidden="1">
-      <c r="A35" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A34" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="12.75" hidden="1">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="12.75" hidden="1">
       <c r="A37" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="38.25" hidden="1">
+      <c r="A38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="51" hidden="1">
+      <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="12.75" hidden="1">
+      <c r="A40" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12.75" hidden="1">
+      <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="12.75" hidden="1">
-      <c r="A38" s="2" t="s">
+    <row r="42" spans="1:16" ht="12.75" hidden="1">
+      <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A39" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="N39" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O39" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P39" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A40" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J40" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="N40" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O40" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P40" s="20"/>
-    </row>
-    <row r="41" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A41" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="N41" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O41" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P41" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A42" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" t="s">
-        <v>169</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="J42" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="N42" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O42" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P42" s="20"/>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A43" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2149,89 +2381,95 @@
       <c r="D43" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="20" t="s">
+      <c r="E43" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="H43" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I43" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="N43" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O43" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P43" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A44" s="16" t="s">
+      <c r="I43" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N43" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O43" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P43" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A44" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="20" t="s">
-        <v>150</v>
-      </c>
       <c r="D44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="H44" s="20" t="s">
+      <c r="E44" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="H44" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I44" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J44" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="N44" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O44" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P44" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A45" s="16" t="s">
+      <c r="I44" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="N44" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A45" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="C45" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="D45" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="20" t="s">
+      <c r="E45" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H45" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I45" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="N45" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O45" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P45" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A46" s="16" t="s">
+      <c r="I45" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="N45" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O45" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P45" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A46" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -2240,25 +2478,28 @@
       <c r="D46" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="20" t="s">
+      <c r="E46" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H46" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I46" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="N46" s="20" t="s">
+      <c r="I46" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="N46" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O46" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P46" s="20"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A47" s="16" t="s">
+      <c r="O46" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P46" s="19"/>
+    </row>
+    <row r="47" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A47" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -2267,504 +2508,1048 @@
       <c r="D47" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H47" s="20" t="s">
+      <c r="E47" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="H47" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I47" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="N47" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="O47" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P47" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A48" s="16" t="s">
+      <c r="I47" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="N47" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+    </row>
+    <row r="48" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A48" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E48" t="s">
+      <c r="H48" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="N48" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O48" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P48" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A49" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O49" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P49" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A50" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A51" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A52" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O52" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="N53" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O53" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P53" s="19"/>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A54" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O54" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P54" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A55" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="H55" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="J55" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+    </row>
+    <row r="56" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A56" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="J56" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="N56" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+    </row>
+    <row r="57" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A57" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I57" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="J57" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="N57" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O57" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P57" s="19"/>
+    </row>
+    <row r="58" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A58" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H58" t="s">
+        <v>130</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J58" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="N58" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O58" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P58" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A59" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H59" t="s">
+        <v>130</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="N59" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O59" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P59" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A60" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H60" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I48" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="J48" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="N48" s="20" t="s">
+      <c r="I60" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J60" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="N60" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O48" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P48" s="20"/>
-    </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A49" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E49" s="20" t="s">
+      <c r="O60" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P60" s="19"/>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A61" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="H61" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J61" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="H49" t="s">
+      <c r="N61" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O61" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P61" s="19"/>
+    </row>
+    <row r="62" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A62" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="H62" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="N62" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O62" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A63" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" s="19"/>
+      <c r="H63" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" t="s">
+        <v>195</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="N63" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O63" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A64" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="N64" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O64" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P64" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="N65" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O65" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P65" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="N66" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="O66" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P66" s="19"/>
+    </row>
+    <row r="67" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="H67" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J67" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="N67" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O67" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P67" s="19"/>
+    </row>
+    <row r="68" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="H68" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="J68" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="N68" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O68" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P68" s="19"/>
+    </row>
+    <row r="69" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="H69" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="J69" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="N69" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O69" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P69" s="19"/>
+    </row>
+    <row r="70" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A70" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H70" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I49" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="N49" s="20" t="s">
+      <c r="I70" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="N70" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O70" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P70" s="19"/>
+    </row>
+    <row r="71" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="J71" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="N71" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="O49" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P49" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A50" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="O71" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P71" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A72" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="J72" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="N72" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O72" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P72" s="19"/>
+    </row>
+    <row r="73" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A73" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H73" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="J73" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="N73" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O73" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A74" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E74" t="s">
+        <v>253</v>
+      </c>
+      <c r="H74" t="s">
         <v>130</v>
       </c>
-      <c r="I50" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="J50" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="N50" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O50" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P50" s="20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A51" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H51" s="20" t="s">
+      <c r="I74" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J74" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="N74" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O74" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A75" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" t="s">
+        <v>256</v>
+      </c>
+      <c r="H75" t="s">
+        <v>130</v>
+      </c>
+      <c r="I75" t="s">
+        <v>255</v>
+      </c>
+      <c r="J75" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="N75" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O75" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A76" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E76" t="s">
+        <v>259</v>
+      </c>
+      <c r="H76" t="s">
+        <v>130</v>
+      </c>
+      <c r="I76" t="s">
+        <v>258</v>
+      </c>
+      <c r="J76" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="N76" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O76" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A77" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" t="s">
+        <v>262</v>
+      </c>
+      <c r="H77" t="s">
+        <v>130</v>
+      </c>
+      <c r="I77" t="s">
+        <v>261</v>
+      </c>
+      <c r="J77" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="N77" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O77" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A78" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" t="s">
+        <v>265</v>
+      </c>
+      <c r="H78" t="s">
+        <v>130</v>
+      </c>
+      <c r="I78" t="s">
+        <v>264</v>
+      </c>
+      <c r="J78" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="N78" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O78" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A79" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E79" t="s">
+        <v>271</v>
+      </c>
+      <c r="H79" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I51" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="J51" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="N51" s="20" t="s">
+      <c r="I79" t="s">
+        <v>270</v>
+      </c>
+      <c r="J79" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="N79" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O51" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P51" s="20"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A52" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E52" s="20"/>
-      <c r="H52" s="20" t="s">
+      <c r="O79" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A80" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" t="s">
+        <v>268</v>
+      </c>
+      <c r="H80" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I52" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="J52" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="N52" s="20" t="s">
+      <c r="I80" t="s">
+        <v>267</v>
+      </c>
+      <c r="J80" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="N80" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O52" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P52" s="20"/>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A53" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E53" s="20"/>
-      <c r="H53" s="20" t="s">
+      <c r="O80" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+      <c r="A81" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E81" t="s">
+        <v>277</v>
+      </c>
+      <c r="H81" t="s">
+        <v>220</v>
+      </c>
+      <c r="I81" t="s">
+        <v>276</v>
+      </c>
+      <c r="J81" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="N81" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O81" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+      <c r="A82" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" t="s">
+        <v>280</v>
+      </c>
+      <c r="H82" t="s">
+        <v>220</v>
+      </c>
+      <c r="I82" t="s">
+        <v>278</v>
+      </c>
+      <c r="J82" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="N82" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O82" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+      <c r="A83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" t="s">
+        <v>84</v>
+      </c>
+      <c r="H83" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="I53" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="N53" s="20" t="s">
+      <c r="I83" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J83" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="N83" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O53" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A54" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E54" s="20"/>
-      <c r="H54" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I54" t="s">
-        <v>197</v>
-      </c>
-      <c r="J54" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="N54" s="20" t="s">
+      <c r="O83" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+      <c r="A84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="J84" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="N84" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="O54" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A55" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="J55" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="N55" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O55" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P55" s="20" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="J56" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="N56" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O56" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P56" s="20" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H57" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I57" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="J57" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="N57" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O57" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P57" s="20"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="H58" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="J58" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="N58" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O58" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P58" s="20"/>
-    </row>
-    <row r="59" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="H59" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="I59" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="N59" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O59" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P59" s="20"/>
-    </row>
-    <row r="60" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A60" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" t="s">
-        <v>230</v>
-      </c>
-      <c r="F60" s="19"/>
-      <c r="H60" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="J60" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="N60" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O60" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P60" s="20"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A61" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I61" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="N61" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O61" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P61" s="20"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A62" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="J62" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="N62" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O62" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P62" s="20" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A63" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="H63" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I63" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="J63" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="N63" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O63" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="P63" s="20"/>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A64" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I64" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="J64" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="N64" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="O64" s="20" t="s">
+      <c r="O84" s="19" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:P64" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <autoFilter ref="A4:P84" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Array"/>
+        <filter val="Dynamic Programming"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="J25" r:id="rId2" xr:uid="{6FE229EF-6142-4FF8-8C7F-F45A98A56AE0}"/>
-    <hyperlink ref="J39" r:id="rId3" xr:uid="{C79B168A-C3B3-45BC-9D5D-E2BB702ACF7C}"/>
-    <hyperlink ref="J40" r:id="rId4" xr:uid="{D7F1C62B-E060-4687-8A88-3BBDCBBBE9D5}"/>
-    <hyperlink ref="J41" r:id="rId5" xr:uid="{367299A1-8B8B-4295-96A1-34916F004B1C}"/>
-    <hyperlink ref="J42" r:id="rId6" xr:uid="{D09FF0AE-8898-4C3C-91F9-91D39B0EE7D4}"/>
-    <hyperlink ref="J43" r:id="rId7" xr:uid="{21FF7C3F-F43E-4E4B-8030-F92111A9C7C4}"/>
-    <hyperlink ref="J44" r:id="rId8" xr:uid="{C3A0A451-232F-4437-A167-464565845DA1}"/>
-    <hyperlink ref="J45" r:id="rId9" xr:uid="{A9EF6C77-8D93-4861-A266-E6A8B9016219}"/>
-    <hyperlink ref="J46" r:id="rId10" xr:uid="{1B1BB03C-BFF2-43B0-B87A-1EA5B3757BFD}"/>
-    <hyperlink ref="J47" r:id="rId11" xr:uid="{CBC5ACAD-16E0-46D3-ADB0-EB6EEEA3B506}"/>
-    <hyperlink ref="J26" r:id="rId12" xr:uid="{4ECE2808-9FAC-4542-82B9-5C2D9F5604B2}"/>
-    <hyperlink ref="J48" r:id="rId13" xr:uid="{2258A3D7-F7A8-46DD-8038-10D20D199086}"/>
-    <hyperlink ref="J13" r:id="rId14" xr:uid="{F2A73131-872E-4E2E-99CA-B0CAFA85C074}"/>
-    <hyperlink ref="J49" r:id="rId15" xr:uid="{B22658B6-80E0-4528-A426-689D11DCEEDF}"/>
-    <hyperlink ref="J50" r:id="rId16" xr:uid="{3BC8D58B-AE15-46D7-8ECA-ED13FD12D011}"/>
-    <hyperlink ref="J51" r:id="rId17" xr:uid="{8BD11E9A-B48C-4867-8AA2-D77F45CB7D01}"/>
-    <hyperlink ref="J52" r:id="rId18" xr:uid="{61C3E937-D92B-4AA3-ADBC-66FDC7F33C3D}"/>
-    <hyperlink ref="J53" r:id="rId19" xr:uid="{445AA0F1-7A74-4184-B5CC-13C962550712}"/>
-    <hyperlink ref="J54" r:id="rId20" xr:uid="{FC5266CA-93BA-4116-9AF5-E4AC6417400D}"/>
-    <hyperlink ref="J55" r:id="rId21" xr:uid="{8A6C7D54-159A-4C1A-B994-D1983702376F}"/>
-    <hyperlink ref="J10" r:id="rId22" xr:uid="{30476345-24B9-4A88-A164-4E12342C931A}"/>
-    <hyperlink ref="J56" r:id="rId23" xr:uid="{08D9DDBE-4FDB-438D-883D-54A27425DE65}"/>
-    <hyperlink ref="J57" r:id="rId24" xr:uid="{FF820546-BFB1-46C4-9355-6EBD13C9C59E}"/>
-    <hyperlink ref="J14" r:id="rId25" xr:uid="{7BFBF960-8769-481D-97A9-2002C0C1D736}"/>
-    <hyperlink ref="J58" r:id="rId26" xr:uid="{F8824C8A-75A7-4C08-9A10-0EFE13C9250D}"/>
-    <hyperlink ref="J59" r:id="rId27" xr:uid="{B45CE05B-86A7-4835-BEBD-1ACDB189E89A}"/>
-    <hyperlink ref="J34" r:id="rId28" xr:uid="{1320A040-9264-4DAE-8296-F7C0DF50162B}"/>
-    <hyperlink ref="J4" r:id="rId29" xr:uid="{1749DFAF-D758-476F-9A7F-E82EC9910406}"/>
-    <hyperlink ref="J60" r:id="rId30" xr:uid="{93795F3A-FD40-4D05-801C-B5C20EB76402}"/>
-    <hyperlink ref="J12" r:id="rId31" xr:uid="{7C5E4D4B-4674-4E7D-8D08-26F946ECC1FB}"/>
-    <hyperlink ref="J7" r:id="rId32" xr:uid="{DDDC26B0-5DD7-49EE-8E3C-B2E9873FEF58}"/>
-    <hyperlink ref="J61" r:id="rId33" xr:uid="{EDD2AAF4-7C71-47A0-96CB-AB8E1DCF1F91}"/>
-    <hyperlink ref="J62" r:id="rId34" xr:uid="{4EE70842-A496-47C8-8098-DB77B1EBE861}"/>
-    <hyperlink ref="J63" r:id="rId35" xr:uid="{390D7BD3-39A4-457D-B6F1-37F69CFB234D}"/>
-    <hyperlink ref="J64" r:id="rId36" xr:uid="{0A7C3064-8D04-4C96-A035-4EE29B199FE3}"/>
+    <hyperlink ref="J26" r:id="rId2" xr:uid="{6FE229EF-6142-4FF8-8C7F-F45A98A56AE0}"/>
+    <hyperlink ref="J43" r:id="rId3" xr:uid="{C79B168A-C3B3-45BC-9D5D-E2BB702ACF7C}"/>
+    <hyperlink ref="J44" r:id="rId4" xr:uid="{D7F1C62B-E060-4687-8A88-3BBDCBBBE9D5}"/>
+    <hyperlink ref="J45" r:id="rId5" xr:uid="{367299A1-8B8B-4295-96A1-34916F004B1C}"/>
+    <hyperlink ref="J46" r:id="rId6" xr:uid="{D09FF0AE-8898-4C3C-91F9-91D39B0EE7D4}"/>
+    <hyperlink ref="J48" r:id="rId7" xr:uid="{21FF7C3F-F43E-4E4B-8030-F92111A9C7C4}"/>
+    <hyperlink ref="J49" r:id="rId8" xr:uid="{C3A0A451-232F-4437-A167-464565845DA1}"/>
+    <hyperlink ref="J52" r:id="rId9" xr:uid="{A9EF6C77-8D93-4861-A266-E6A8B9016219}"/>
+    <hyperlink ref="J53" r:id="rId10" xr:uid="{1B1BB03C-BFF2-43B0-B87A-1EA5B3757BFD}"/>
+    <hyperlink ref="J54" r:id="rId11" xr:uid="{CBC5ACAD-16E0-46D3-ADB0-EB6EEEA3B506}"/>
+    <hyperlink ref="J28" r:id="rId12" xr:uid="{4ECE2808-9FAC-4542-82B9-5C2D9F5604B2}"/>
+    <hyperlink ref="J57" r:id="rId13" xr:uid="{2258A3D7-F7A8-46DD-8038-10D20D199086}"/>
+    <hyperlink ref="J14" r:id="rId14" xr:uid="{F2A73131-872E-4E2E-99CA-B0CAFA85C074}"/>
+    <hyperlink ref="J58" r:id="rId15" xr:uid="{B22658B6-80E0-4528-A426-689D11DCEEDF}"/>
+    <hyperlink ref="J59" r:id="rId16" xr:uid="{3BC8D58B-AE15-46D7-8ECA-ED13FD12D011}"/>
+    <hyperlink ref="J60" r:id="rId17" xr:uid="{8BD11E9A-B48C-4867-8AA2-D77F45CB7D01}"/>
+    <hyperlink ref="J61" r:id="rId18" xr:uid="{61C3E937-D92B-4AA3-ADBC-66FDC7F33C3D}"/>
+    <hyperlink ref="J62" r:id="rId19" xr:uid="{445AA0F1-7A74-4184-B5CC-13C962550712}"/>
+    <hyperlink ref="J63" r:id="rId20" xr:uid="{FC5266CA-93BA-4116-9AF5-E4AC6417400D}"/>
+    <hyperlink ref="J64" r:id="rId21" xr:uid="{8A6C7D54-159A-4C1A-B994-D1983702376F}"/>
+    <hyperlink ref="J11" r:id="rId22" xr:uid="{30476345-24B9-4A88-A164-4E12342C931A}"/>
+    <hyperlink ref="J65" r:id="rId23" xr:uid="{08D9DDBE-4FDB-438D-883D-54A27425DE65}"/>
+    <hyperlink ref="J66" r:id="rId24" xr:uid="{FF820546-BFB1-46C4-9355-6EBD13C9C59E}"/>
+    <hyperlink ref="J15" r:id="rId25" xr:uid="{7BFBF960-8769-481D-97A9-2002C0C1D736}"/>
+    <hyperlink ref="J67" r:id="rId26" xr:uid="{F8824C8A-75A7-4C08-9A10-0EFE13C9250D}"/>
+    <hyperlink ref="J68" r:id="rId27" xr:uid="{B45CE05B-86A7-4835-BEBD-1ACDB189E89A}"/>
+    <hyperlink ref="J38" r:id="rId28" xr:uid="{1320A040-9264-4DAE-8296-F7C0DF50162B}"/>
+    <hyperlink ref="J5" r:id="rId29" xr:uid="{1749DFAF-D758-476F-9A7F-E82EC9910406}"/>
+    <hyperlink ref="J69" r:id="rId30" xr:uid="{93795F3A-FD40-4D05-801C-B5C20EB76402}"/>
+    <hyperlink ref="J13" r:id="rId31" xr:uid="{7C5E4D4B-4674-4E7D-8D08-26F946ECC1FB}"/>
+    <hyperlink ref="J8" r:id="rId32" xr:uid="{DDDC26B0-5DD7-49EE-8E3C-B2E9873FEF58}"/>
+    <hyperlink ref="J70" r:id="rId33" xr:uid="{EDD2AAF4-7C71-47A0-96CB-AB8E1DCF1F91}"/>
+    <hyperlink ref="J71" r:id="rId34" xr:uid="{4EE70842-A496-47C8-8098-DB77B1EBE861}"/>
+    <hyperlink ref="J72" r:id="rId35" xr:uid="{390D7BD3-39A4-457D-B6F1-37F69CFB234D}"/>
+    <hyperlink ref="J73" r:id="rId36" xr:uid="{0A7C3064-8D04-4C96-A035-4EE29B199FE3}"/>
+    <hyperlink ref="J74" r:id="rId37" xr:uid="{6F6E7001-9B43-4846-8A56-440BE9A3BC92}"/>
+    <hyperlink ref="J75" r:id="rId38" xr:uid="{84A39B52-7562-4C8D-9CB0-E45873906FD6}"/>
+    <hyperlink ref="J76" r:id="rId39" xr:uid="{60D8930D-5E92-41F0-9BCC-3CE79758E12A}"/>
+    <hyperlink ref="J77" r:id="rId40" xr:uid="{08CF7C5C-DC22-40DE-A4AB-B91FD2994755}"/>
+    <hyperlink ref="J78" r:id="rId41" xr:uid="{2CC3B103-9749-4A7D-B073-0A08D10C6036}"/>
+    <hyperlink ref="J79" r:id="rId42" xr:uid="{4B186235-5B68-4933-B19A-D9FBA7A2F332}"/>
+    <hyperlink ref="J80" r:id="rId43" xr:uid="{3D7BAA61-051B-4E54-A8AC-FF9EBFA22234}"/>
+    <hyperlink ref="J81" r:id="rId44" xr:uid="{0ADC6DFE-2CE0-451C-ACDB-964D40ECBA3C}"/>
+    <hyperlink ref="J16" r:id="rId45" xr:uid="{440876B8-DCFC-43FE-93DC-96DC46FE7AAD}"/>
+    <hyperlink ref="J82" r:id="rId46" xr:uid="{F5C66545-EA47-4369-9D27-713BA9909825}"/>
+    <hyperlink ref="J21" r:id="rId47" xr:uid="{905058F5-BD84-4938-95D9-2E44A080C80A}"/>
+    <hyperlink ref="J39" r:id="rId48" xr:uid="{80D29D06-4752-40E1-9A2B-4F5A3C7FF7BF}"/>
+    <hyperlink ref="J83" r:id="rId49" xr:uid="{50F3DCFE-49AC-4427-AC99-FE63ADE551D8}"/>
+    <hyperlink ref="J84" r:id="rId50" xr:uid="{763B90EF-85D7-4B6F-8967-EF99A3F8A3EA}"/>
+    <hyperlink ref="J27" r:id="rId51" xr:uid="{6725C166-C311-4068-A72F-EB2D4DAF6CB1}"/>
+    <hyperlink ref="J55" r:id="rId52" xr:uid="{24BC9B84-BE63-4380-84C0-2A518DE478B3}"/>
+    <hyperlink ref="J56" r:id="rId53" xr:uid="{BD9AE522-7F93-4F4C-B70D-BAE4A91F8EEE}"/>
+    <hyperlink ref="J50" r:id="rId54" xr:uid="{6BC5EB10-6E0C-49DF-82D6-D274FFEE7825}"/>
+    <hyperlink ref="J51" r:id="rId55" xr:uid="{AEBD6CA6-3C8D-479D-BB8F-01041CC03115}"/>
+    <hyperlink ref="J30" r:id="rId56" xr:uid="{62AA72AF-E376-49EE-9653-9FD7121946A3}"/>
+    <hyperlink ref="J47" r:id="rId57" xr:uid="{66E9064E-A2B6-441D-8064-A154371FB282}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId58"/>
 </worksheet>
 </file>
 
@@ -2776,7 +3561,9 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2784,7 +3571,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2792,7 +3579,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2800,7 +3587,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2816,7 +3603,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2869,7 +3656,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>101</v>
       </c>
     </row>

--- a/sheet/AlgoSheet.xlsx
+++ b/sheet/AlgoSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workspace\repo\algo\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F22809-1647-440E-A685-E7E9974D8FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E295DF0-9B19-47AF-904B-F4464786F5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="317">
   <si>
     <t>https://www.reddit.com/r/csMajors/comments/uy7gg3/leetcode_tips_from_author_of_blind_75/</t>
   </si>
@@ -469,9 +469,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>com.mine.amazon.HouseRobber</t>
-  </si>
-  <si>
     <t>Series</t>
   </si>
   <si>
@@ -992,6 +989,12 @@
   </si>
   <si>
     <t>516. Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Since House[1] and House[n] are adjacent, they cannot be robbed together. Therefore, the problem becomes to rob either House[1]-House[n-1] or House[2]-House[n], depending on which choice offers more money.</t>
+  </si>
+  <si>
+    <t>com.mine.dp.houserobber.*</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1164,6 +1167,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1648,8 +1654,8 @@
   </sheetPr>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43:P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1664,6 +1670,7 @@
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="69.42578125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
     <col min="16" max="16" width="85.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1681,7 +1688,7 @@
     <row r="2" spans="1:16" ht="12.75">
       <c r="A2" s="9"/>
       <c r="B2" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="4"/>
       <c r="F2" s="10"/>
@@ -1721,16 +1728,16 @@
         <v>44</v>
       </c>
       <c r="L4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="N4" s="18" t="s">
         <v>135</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>45</v>
@@ -1745,26 +1752,26 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F5" s="18"/>
       <c r="H5" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N5" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="12.75" hidden="1">
@@ -1793,23 +1800,23 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>130</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O8" s="19"/>
       <c r="P8" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="12.75" hidden="1">
@@ -1831,25 +1838,25 @@
         <v>53</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H11" t="s">
         <v>130</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N11" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="12.75" hidden="1">
@@ -1862,48 +1869,48 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>130</v>
       </c>
       <c r="I13" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>231</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>232</v>
       </c>
       <c r="N13" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="32.25" hidden="1" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H14" t="s">
         <v>130</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N14" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="63.75" hidden="1">
@@ -1911,7 +1918,7 @@
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>57</v>
@@ -1920,19 +1927,19 @@
         <v>140</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N15" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" hidden="1" customHeight="1">
@@ -1947,22 +1954,22 @@
         <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H16" t="s">
         <v>140</v>
       </c>
       <c r="I16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N16" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" hidden="1" customHeight="1">
@@ -2012,25 +2019,25 @@
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H21" t="s">
         <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N21" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" hidden="1" customHeight="1">
@@ -2077,13 +2084,13 @@
         <v>69</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F26" s="19"/>
       <c r="H26" t="s">
@@ -2099,7 +2106,7 @@
         <v>136</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P26" t="s">
         <v>131</v>
@@ -2113,23 +2120,23 @@
         <v>69</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F27" s="19"/>
       <c r="H27" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K27" s="19"/>
       <c r="N27" s="19" t="s">
@@ -2137,7 +2144,7 @@
       </c>
       <c r="O27" s="19"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
@@ -2145,34 +2152,34 @@
         <v>71</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H28" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N28" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
@@ -2180,32 +2187,32 @@
         <v>71</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N29" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O29" s="19"/>
       <c r="P29" s="19" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>68</v>
       </c>
@@ -2213,22 +2220,22 @@
         <v>71</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I30" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="J30" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>312</v>
       </c>
       <c r="N30" s="19" t="s">
         <v>139</v>
@@ -2236,7 +2243,7 @@
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+    <row r="31" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>68</v>
       </c>
@@ -2247,7 +2254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+    <row r="32" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="15" t="s">
         <v>68</v>
       </c>
@@ -2309,7 +2316,7 @@
         <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>83</v>
@@ -2318,19 +2325,19 @@
         <v>130</v>
       </c>
       <c r="I38" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="J38" s="17" t="s">
         <v>221</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>222</v>
       </c>
       <c r="N38" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="51" hidden="1">
@@ -2344,16 +2351,16 @@
         <v>140</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N39" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="12.75" hidden="1">
@@ -2382,7 +2389,7 @@
         <v>70</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>140</v>
@@ -2394,13 +2401,13 @@
         <v>137</v>
       </c>
       <c r="N43" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O43" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P43" s="19" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1">
@@ -2414,26 +2421,31 @@
         <v>70</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H44" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="N44" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O44" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="P44" s="19"/>
-    </row>
-    <row r="45" spans="1:16" ht="15.75" customHeight="1">
+        <v>142</v>
+      </c>
+      <c r="P44" s="19" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="15" t="s">
         <v>68</v>
       </c>
@@ -2441,34 +2453,34 @@
         <v>69</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H45" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N45" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O45" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P45" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="15.75" customHeight="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="15" t="s">
         <v>68</v>
       </c>
@@ -2479,26 +2491,26 @@
         <v>70</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N46" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O46" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P46" s="19"/>
     </row>
-    <row r="47" spans="1:16" ht="15.75" customHeight="1">
+    <row r="47" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="15" t="s">
         <v>68</v>
       </c>
@@ -2509,16 +2521,16 @@
         <v>70</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N47" s="19" t="s">
         <v>139</v>
@@ -2526,7 +2538,7 @@
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
     </row>
-    <row r="48" spans="1:16" ht="15.75" customHeight="1">
+    <row r="48" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="15" t="s">
         <v>68</v>
       </c>
@@ -2540,19 +2552,19 @@
         <v>140</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N48" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P48" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1">
@@ -2563,31 +2575,31 @@
         <v>69</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H49" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I49" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J49" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="N49" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O49" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P49" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1">
@@ -2595,32 +2607,32 @@
         <v>68</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H50" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N50" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O50" s="19"/>
       <c r="P50" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1">
@@ -2628,25 +2640,25 @@
         <v>68</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H51" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I51" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="J51" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>306</v>
       </c>
       <c r="N51" s="19" t="s">
         <v>139</v>
@@ -2654,7 +2666,7 @@
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
     </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1">
+    <row r="52" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="15" t="s">
         <v>68</v>
       </c>
@@ -2668,22 +2680,22 @@
         <v>140</v>
       </c>
       <c r="I52" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J52" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>161</v>
       </c>
       <c r="N52" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P52" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="15" t="s">
         <v>68</v>
       </c>
@@ -2697,20 +2709,20 @@
         <v>140</v>
       </c>
       <c r="I53" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J53" s="17" t="s">
         <v>162</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>163</v>
       </c>
       <c r="N53" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P53" s="19"/>
     </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1">
+    <row r="54" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="15" t="s">
         <v>68</v>
       </c>
@@ -2721,25 +2733,25 @@
         <v>70</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I54" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J54" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O54" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="P54" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="J54" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="O54" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="P54" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1">
@@ -2754,16 +2766,16 @@
         <v>70</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J55" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N55" s="19" t="s">
         <v>139</v>
@@ -2783,16 +2795,16 @@
         <v>70</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H56" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J56" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N56" s="19" t="s">
         <v>139</v>
@@ -2800,7 +2812,7 @@
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1">
+    <row r="57" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="15" t="s">
         <v>68</v>
       </c>
@@ -2808,195 +2820,195 @@
         <v>71</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H57" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J57" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N57" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O57" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P57" s="19"/>
     </row>
     <row r="58" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H58" t="s">
         <v>130</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J58" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N58" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O58" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P58" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H59" t="s">
         <v>130</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J59" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N59" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O59" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P59" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H60" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J60" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N60" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O60" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P60" s="19"/>
     </row>
     <row r="61" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A61" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E61" s="19"/>
       <c r="H61" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I61" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J61" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>191</v>
       </c>
       <c r="N61" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P61" s="19"/>
     </row>
     <row r="62" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A62" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E62" s="19"/>
       <c r="H62" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N62" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O62" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A63" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E63" s="19"/>
       <c r="H63" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N63" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O63" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J64" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N64" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O64" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P64" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="15.75" hidden="1" customHeight="1">
@@ -3004,25 +3016,25 @@
         <v>53</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J65" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N65" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O65" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P65" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="15.75" hidden="1" customHeight="1">
@@ -3030,22 +3042,22 @@
         <v>53</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J66" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N66" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O66" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P66" s="19"/>
     </row>
@@ -3054,23 +3066,23 @@
         <v>56</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F67" s="4"/>
       <c r="H67" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J67" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N67" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O67" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P67" s="19"/>
     </row>
@@ -3079,23 +3091,23 @@
         <v>56</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F68" s="4"/>
       <c r="H68" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J68" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N68" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O68" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P68" s="19"/>
     </row>
@@ -3108,23 +3120,23 @@
         <v>47</v>
       </c>
       <c r="E69" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F69" s="18"/>
       <c r="H69" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J69" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N69" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O69" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P69" s="19"/>
     </row>
@@ -3133,22 +3145,22 @@
         <v>50</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H70" s="19" t="s">
         <v>130</v>
       </c>
       <c r="I70" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="J70" s="17" t="s">
         <v>239</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>240</v>
       </c>
       <c r="N70" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O70" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P70" s="19"/>
     </row>
@@ -3160,279 +3172,279 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H71" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I71" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="J71" s="17" t="s">
         <v>242</v>
-      </c>
-      <c r="J71" s="17" t="s">
-        <v>243</v>
       </c>
       <c r="N71" s="19" t="s">
         <v>136</v>
       </c>
       <c r="O71" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P71" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H72" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I72" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J72" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="J72" s="17" t="s">
-        <v>246</v>
       </c>
       <c r="N72" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O72" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P72" s="19"/>
     </row>
     <row r="73" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A73" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H73" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I73" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="J73" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="J73" s="17" t="s">
-        <v>249</v>
       </c>
       <c r="N73" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O73" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H74" t="s">
         <v>130</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J74" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N74" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O74" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H75" t="s">
         <v>130</v>
       </c>
       <c r="I75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J75" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N75" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O75" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H76" t="s">
         <v>130</v>
       </c>
       <c r="I76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J76" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N76" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O76" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H77" t="s">
         <v>130</v>
       </c>
       <c r="I77" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J77" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N77" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H78" t="s">
         <v>130</v>
       </c>
       <c r="I78" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J78" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N78" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E79" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H79" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I79" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N79" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O79" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H80" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J80" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N80" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O80" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J81" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N81" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="15.75" hidden="1" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E82" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I82" t="s">
+        <v>277</v>
+      </c>
+      <c r="J82" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="J82" s="17" t="s">
-        <v>279</v>
       </c>
       <c r="N82" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O82" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="15.75" hidden="1" customHeight="1">
@@ -3446,16 +3458,16 @@
         <v>140</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J83" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N83" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O83" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="15.75" hidden="1" customHeight="1">
@@ -3466,19 +3478,19 @@
         <v>84</v>
       </c>
       <c r="H84" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J84" s="17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N84" s="19" t="s">
         <v>139</v>
       </c>
       <c r="O84" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3486,6 +3498,13 @@
     <filterColumn colId="0">
       <filters>
         <filter val="Dynamic Programming"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Top 5 DP: Fibonacci Numbers"/>
+        <filter val="Top 5 DP: Unbounded Knapsack"/>
+        <filter val="Top 5 DP: Zero / One Knapsack"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/sheet/AlgoSheet.xlsx
+++ b/sheet/AlgoSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workspace\repo\algo\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E295DF0-9B19-47AF-904B-F4464786F5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D04F7E5-9D59-417C-929C-156D9CB72C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="318">
   <si>
     <t>https://www.reddit.com/r/csMajors/comments/uy7gg3/leetcode_tips_from_author_of_blind_75/</t>
   </si>
@@ -995,6 +995,9 @@
   </si>
   <si>
     <t>com.mine.dp.houserobber.*</t>
+  </si>
+  <si>
+    <t>com.mine.dp.MaxAlternatingSum.*</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1658,7 @@
   <dimension ref="A1:P84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43:P44"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2140,11 +2143,14 @@
       </c>
       <c r="K27" s="19"/>
       <c r="N27" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O27" s="19"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="P27" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>68</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1">
+    <row r="49" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="15" t="s">
         <v>68</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1">
+    <row r="50" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="15" t="s">
         <v>68</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1">
+    <row r="51" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A51" s="15" t="s">
         <v>68</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1">
+    <row r="55" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="15" t="s">
         <v>68</v>
       </c>
@@ -2783,7 +2789,7 @@
       <c r="O55" s="19"/>
       <c r="P55" s="19"/>
     </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1">
+    <row r="56" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="15" t="s">
         <v>68</v>
       </c>
@@ -2812,7 +2818,7 @@
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="57" spans="1:16" ht="15.75" customHeight="1">
       <c r="A57" s="15" t="s">
         <v>68</v>
       </c>
@@ -3502,9 +3508,9 @@
     </filterColumn>
     <filterColumn colId="4">
       <filters>
+        <filter val="Longest Common Subsequence"/>
         <filter val="Top 5 DP: Fibonacci Numbers"/>
-        <filter val="Top 5 DP: Unbounded Knapsack"/>
-        <filter val="Top 5 DP: Zero / One Knapsack"/>
+        <filter val="Top 5 DP: Longest Common Subsequence"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3581,7 +3587,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/sheet/AlgoSheet.xlsx
+++ b/sheet/AlgoSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workspace\repo\algo\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D04F7E5-9D59-417C-929C-156D9CB72C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6331A350-EAC9-4B3E-97A9-0ED02E2920B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1657,8 +1657,8 @@
   </sheetPr>
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2079,7 +2079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>68</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1">
+    <row r="27" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>68</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>68</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" customHeight="1">
+    <row r="43" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="15" t="s">
         <v>68</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" customHeight="1">
+    <row r="44" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>68</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:16" ht="15.75" customHeight="1">
       <c r="A49" s="15" t="s">
         <v>68</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:16" ht="15.75" customHeight="1">
       <c r="A50" s="15" t="s">
         <v>68</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:16" ht="15.75" customHeight="1">
       <c r="A51" s="15" t="s">
         <v>68</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="55" spans="1:16" ht="15.75" customHeight="1">
       <c r="A55" s="15" t="s">
         <v>68</v>
       </c>
@@ -2789,7 +2789,7 @@
       <c r="O55" s="19"/>
       <c r="P55" s="19"/>
     </row>
-    <row r="56" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="56" spans="1:16" ht="15.75" customHeight="1">
       <c r="A56" s="15" t="s">
         <v>68</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
     </row>
-    <row r="57" spans="1:16" ht="15.75" customHeight="1">
+    <row r="57" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="15" t="s">
         <v>68</v>
       </c>
@@ -3508,9 +3508,8 @@
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="Longest Common Subsequence"/>
-        <filter val="Top 5 DP: Fibonacci Numbers"/>
-        <filter val="Top 5 DP: Longest Common Subsequence"/>
+        <filter val="Top 5 DP: Unbounded Knapsack"/>
+        <filter val="Top 5 DP: Zero / One Knapsack"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3673,7 +3672,9 @@
   </sheetPr>
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>

--- a/sheet/AlgoSheet.xlsx
+++ b/sheet/AlgoSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workspace\repo\algo\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6331A350-EAC9-4B3E-97A9-0ED02E2920B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7DAEF9-BD84-4CCC-BC5E-F96127C04148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
     <sheet name="Tips" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Algo!$A$4:$P$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Algo!$A$4:$Q$84</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="320">
   <si>
     <t>https://www.reddit.com/r/csMajors/comments/uy7gg3/leetcode_tips_from_author_of_blind_75/</t>
   </si>
@@ -998,6 +998,12 @@
   </si>
   <si>
     <t>com.mine.dp.MaxAlternatingSum.*</t>
+  </si>
+  <si>
+    <t>Google Doc</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -1655,10 +1661,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P84"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1675,10 +1681,10 @@
     <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="69.42578125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="16" max="16" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="85.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75">
+    <row r="1" spans="1:17" ht="12.75">
       <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
@@ -1688,7 +1694,7 @@
       <c r="C1" s="2"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:16" ht="12.75">
+    <row r="2" spans="1:17" ht="12.75">
       <c r="A2" s="9"/>
       <c r="B2" s="20" t="s">
         <v>290</v>
@@ -1696,7 +1702,7 @@
       <c r="C2" s="4"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75">
+    <row r="4" spans="1:17" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -1742,11 +1748,14 @@
       <c r="O4" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="51" hidden="1">
+    <row r="5" spans="1:17" ht="51" hidden="1">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1773,11 +1782,12 @@
       <c r="O5" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75" hidden="1">
+    <row r="6" spans="1:17" ht="12.75" hidden="1">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1786,7 +1796,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="12.75" hidden="1">
+    <row r="7" spans="1:17" ht="12.75" hidden="1">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -1795,7 +1805,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="51" hidden="1">
+    <row r="8" spans="1:17" ht="51" hidden="1">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -1818,11 +1828,12 @@
         <v>136</v>
       </c>
       <c r="O8" s="19"/>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75" hidden="1">
+    <row r="9" spans="1:17" ht="12.75" hidden="1">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -1831,12 +1842,12 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="12.75" hidden="1">
+    <row r="10" spans="1:17" ht="12.75" hidden="1">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="38.25" hidden="1">
+    <row r="11" spans="1:17" ht="38.25" hidden="1">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -1858,16 +1869,17 @@
       <c r="O11" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" hidden="1">
+    <row r="12" spans="1:17" ht="12.75" hidden="1">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="38.25" hidden="1">
+    <row r="13" spans="1:17" ht="38.25" hidden="1">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1889,11 +1901,12 @@
       <c r="O13" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="32.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:17" ht="32.25" hidden="1" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>179</v>
       </c>
@@ -1915,8 +1928,9 @@
       <c r="O14" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="63.75" hidden="1">
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" ht="63.75" hidden="1">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -1941,11 +1955,12 @@
       <c r="O15" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>58</v>
       </c>
@@ -1974,8 +1989,9 @@
       <c r="O16" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>58</v>
       </c>
@@ -1986,7 +2002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>58</v>
       </c>
@@ -1994,7 +2010,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="19" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A19" s="15" t="s">
         <v>58</v>
       </c>
@@ -2002,7 +2018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75" hidden="1">
+    <row r="20" spans="1:17" ht="12.75" hidden="1">
       <c r="A20" s="15" t="s">
         <v>58</v>
       </c>
@@ -2010,7 +2026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="15" t="s">
         <v>66</v>
       </c>
@@ -2039,11 +2055,12 @@
       <c r="O21" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="15" t="s">
         <v>66</v>
       </c>
@@ -2054,7 +2071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="15" t="s">
         <v>66</v>
       </c>
@@ -2062,7 +2079,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="24" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="15" t="s">
         <v>66</v>
       </c>
@@ -2070,7 +2087,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="12.75" hidden="1">
+    <row r="25" spans="1:17" ht="12.75" hidden="1">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -2079,7 +2096,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:17" ht="15.75" customHeight="1">
       <c r="A26" s="15" t="s">
         <v>68</v>
       </c>
@@ -2111,11 +2128,12 @@
       <c r="O26" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="19"/>
+      <c r="Q26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:17" ht="15.75" customHeight="1">
       <c r="A27" s="15" t="s">
         <v>68</v>
       </c>
@@ -2146,11 +2164,12 @@
         <v>136</v>
       </c>
       <c r="O27" s="19"/>
-      <c r="P27" t="s">
+      <c r="P27" s="19"/>
+      <c r="Q27" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="15" t="s">
         <v>68</v>
       </c>
@@ -2181,11 +2200,12 @@
       <c r="O28" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P28" s="19" t="s">
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="15" t="s">
         <v>68</v>
       </c>
@@ -2214,11 +2234,12 @@
         <v>139</v>
       </c>
       <c r="O29" s="19"/>
-      <c r="P29" s="19" t="s">
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="15" t="s">
         <v>68</v>
       </c>
@@ -2248,8 +2269,9 @@
       </c>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A31" s="15" t="s">
         <v>68</v>
       </c>
@@ -2260,7 +2282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="15" t="s">
         <v>68</v>
       </c>
@@ -2274,7 +2296,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="12.75" hidden="1">
+    <row r="33" spans="1:17" ht="12.75" hidden="1">
       <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
@@ -2284,7 +2306,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="15" t="s">
         <v>77</v>
       </c>
@@ -2295,7 +2317,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="15" t="s">
         <v>77</v>
       </c>
@@ -2307,17 +2329,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="12.75" hidden="1">
+    <row r="36" spans="1:17" ht="12.75" hidden="1">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="12.75" hidden="1">
+    <row r="37" spans="1:17" ht="12.75" hidden="1">
       <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="38.25" hidden="1">
+    <row r="38" spans="1:17" ht="38.25" hidden="1">
       <c r="A38" s="2" t="s">
         <v>83</v>
       </c>
@@ -2342,11 +2364,12 @@
       <c r="O38" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P38" s="19" t="s">
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="51" hidden="1">
+    <row r="39" spans="1:17" ht="51" hidden="1">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -2368,23 +2391,24 @@
       <c r="O39" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="12.75" hidden="1">
+      <c r="P39" s="19"/>
+    </row>
+    <row r="40" spans="1:17" ht="12.75" hidden="1">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="12.75" hidden="1">
+    <row r="41" spans="1:17" ht="12.75" hidden="1">
       <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="12.75" hidden="1">
+    <row r="42" spans="1:17" ht="12.75" hidden="1">
       <c r="A42" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="43" spans="1:17" ht="15.75" customHeight="1">
       <c r="A43" s="15" t="s">
         <v>68</v>
       </c>
@@ -2412,11 +2436,12 @@
       <c r="O43" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P43" s="19" t="s">
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>68</v>
       </c>
@@ -2447,11 +2472,12 @@
       <c r="O44" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P44" s="19" t="s">
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="15" t="s">
         <v>68</v>
       </c>
@@ -2482,11 +2508,12 @@
       <c r="O45" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P45" s="19" t="s">
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="15" t="s">
         <v>68</v>
       </c>
@@ -2515,8 +2542,9 @@
         <v>142</v>
       </c>
       <c r="P46" s="19"/>
-    </row>
-    <row r="47" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q46" s="19"/>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="15" t="s">
         <v>68</v>
       </c>
@@ -2543,8 +2571,9 @@
       </c>
       <c r="O47" s="19"/>
       <c r="P47" s="19"/>
-    </row>
-    <row r="48" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q47" s="19"/>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="15" t="s">
         <v>68</v>
       </c>
@@ -2569,11 +2598,12 @@
       <c r="O48" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P48" s="19" t="s">
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15.75" customHeight="1">
+    <row r="49" spans="1:17" ht="15.75" customHeight="1">
       <c r="A49" s="15" t="s">
         <v>68</v>
       </c>
@@ -2604,11 +2634,12 @@
       <c r="O49" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P49" s="19" t="s">
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15.75" customHeight="1">
+    <row r="50" spans="1:17" ht="15.75" customHeight="1">
       <c r="A50" s="15" t="s">
         <v>68</v>
       </c>
@@ -2637,11 +2668,12 @@
         <v>136</v>
       </c>
       <c r="O50" s="19"/>
-      <c r="P50" s="19" t="s">
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15.75" customHeight="1">
+    <row r="51" spans="1:17" ht="15.75" customHeight="1">
       <c r="A51" s="15" t="s">
         <v>68</v>
       </c>
@@ -2667,12 +2699,13 @@
         <v>305</v>
       </c>
       <c r="N51" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O51" s="19"/>
       <c r="P51" s="19"/>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q51" s="19"/>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="15" t="s">
         <v>68</v>
       </c>
@@ -2697,11 +2730,12 @@
       <c r="O52" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P52" s="19" t="s">
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="53" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="15" t="s">
         <v>68</v>
       </c>
@@ -2727,8 +2761,9 @@
         <v>142</v>
       </c>
       <c r="P53" s="19"/>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q53" s="19"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="15" t="s">
         <v>68</v>
       </c>
@@ -2756,11 +2791,12 @@
       <c r="O54" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P54" s="19" t="s">
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1">
+    <row r="55" spans="1:17" ht="15.75" customHeight="1">
       <c r="A55" s="15" t="s">
         <v>68</v>
       </c>
@@ -2784,12 +2820,15 @@
         <v>294</v>
       </c>
       <c r="N55" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-    </row>
-    <row r="56" spans="1:16" ht="15.75" customHeight="1">
+      <c r="P55" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q55" s="19"/>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1">
       <c r="A56" s="15" t="s">
         <v>68</v>
       </c>
@@ -2813,12 +2852,13 @@
         <v>297</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O56" s="19"/>
       <c r="P56" s="19"/>
-    </row>
-    <row r="57" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q56" s="19"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="15" t="s">
         <v>68</v>
       </c>
@@ -2850,8 +2890,9 @@
         <v>142</v>
       </c>
       <c r="P57" s="19"/>
-    </row>
-    <row r="58" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q57" s="19"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A58" s="18" t="s">
         <v>179</v>
       </c>
@@ -2873,11 +2914,12 @@
       <c r="O58" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P58" s="19" t="s">
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="59" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A59" s="18" t="s">
         <v>179</v>
       </c>
@@ -2899,11 +2941,12 @@
       <c r="O59" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P59" s="19" t="s">
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="18" t="s">
         <v>179</v>
       </c>
@@ -2926,8 +2969,9 @@
         <v>142</v>
       </c>
       <c r="P60" s="19"/>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q60" s="19"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A61" s="18" t="s">
         <v>179</v>
       </c>
@@ -2948,8 +2992,9 @@
         <v>142</v>
       </c>
       <c r="P61" s="19"/>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q61" s="19"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A62" s="18" t="s">
         <v>179</v>
       </c>
@@ -2969,8 +3014,9 @@
       <c r="O62" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="P62" s="19"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A63" s="18" t="s">
         <v>179</v>
       </c>
@@ -2990,8 +3036,9 @@
       <c r="O63" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="P63" s="19"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>179</v>
       </c>
@@ -3013,11 +3060,12 @@
       <c r="O64" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P64" s="19" t="s">
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="65" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
@@ -3039,11 +3087,12 @@
       <c r="O65" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P65" s="19" t="s">
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="66" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>53</v>
       </c>
@@ -3066,8 +3115,9 @@
         <v>142</v>
       </c>
       <c r="P66" s="19"/>
-    </row>
-    <row r="67" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q66" s="19"/>
+    </row>
+    <row r="67" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>56</v>
       </c>
@@ -3091,8 +3141,9 @@
         <v>142</v>
       </c>
       <c r="P67" s="19"/>
-    </row>
-    <row r="68" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q67" s="19"/>
+    </row>
+    <row r="68" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>56</v>
       </c>
@@ -3116,8 +3167,9 @@
         <v>142</v>
       </c>
       <c r="P68" s="19"/>
-    </row>
-    <row r="69" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q68" s="19"/>
+    </row>
+    <row r="69" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>46</v>
       </c>
@@ -3145,8 +3197,9 @@
         <v>142</v>
       </c>
       <c r="P69" s="19"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q69" s="19"/>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>50</v>
       </c>
@@ -3169,8 +3222,9 @@
         <v>142</v>
       </c>
       <c r="P70" s="19"/>
-    </row>
-    <row r="71" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q70" s="19"/>
+    </row>
+    <row r="71" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>50</v>
       </c>
@@ -3195,11 +3249,12 @@
       <c r="O71" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="P71" s="19" t="s">
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="72" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="18" t="s">
         <v>243</v>
       </c>
@@ -3222,8 +3277,9 @@
         <v>142</v>
       </c>
       <c r="P72" s="19"/>
-    </row>
-    <row r="73" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q72" s="19"/>
+    </row>
+    <row r="73" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A73" s="18" t="s">
         <v>243</v>
       </c>
@@ -3245,8 +3301,9 @@
       <c r="O73" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="P73" s="19"/>
+    </row>
+    <row r="74" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A74" s="18" t="s">
         <v>249</v>
       </c>
@@ -3268,8 +3325,9 @@
       <c r="O74" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="P74" s="19"/>
+    </row>
+    <row r="75" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A75" s="18" t="s">
         <v>249</v>
       </c>
@@ -3291,8 +3349,9 @@
       <c r="O75" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="P75" s="19"/>
+    </row>
+    <row r="76" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A76" s="18" t="s">
         <v>249</v>
       </c>
@@ -3314,8 +3373,9 @@
       <c r="O76" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="P76" s="19"/>
+    </row>
+    <row r="77" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A77" s="18" t="s">
         <v>249</v>
       </c>
@@ -3337,8 +3397,9 @@
       <c r="O77" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="P77" s="19"/>
+    </row>
+    <row r="78" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A78" s="18" t="s">
         <v>249</v>
       </c>
@@ -3360,8 +3421,9 @@
       <c r="O78" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="P78" s="19"/>
+    </row>
+    <row r="79" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A79" s="18" t="s">
         <v>249</v>
       </c>
@@ -3383,8 +3445,9 @@
       <c r="O79" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="P79" s="19"/>
+    </row>
+    <row r="80" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A80" s="18" t="s">
         <v>249</v>
       </c>
@@ -3406,8 +3469,9 @@
       <c r="O80" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+      <c r="P80" s="19"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="18" t="s">
         <v>249</v>
       </c>
@@ -3429,8 +3493,9 @@
       <c r="O81" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+      <c r="P81" s="19"/>
+    </row>
+    <row r="82" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A82" s="18" t="s">
         <v>249</v>
       </c>
@@ -3452,8 +3517,9 @@
       <c r="O82" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+      <c r="P82" s="19"/>
+    </row>
+    <row r="83" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>84</v>
       </c>
@@ -3475,8 +3541,9 @@
       <c r="O83" s="19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" ht="15.75" hidden="1" customHeight="1">
+      <c r="P83" s="19"/>
+    </row>
+    <row r="84" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>84</v>
       </c>
@@ -3498,9 +3565,10 @@
       <c r="O84" s="19" t="s">
         <v>142</v>
       </c>
+      <c r="P84" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:P84" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <autoFilter ref="A4:Q84" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="Dynamic Programming"/>
@@ -3508,6 +3576,7 @@
     </filterColumn>
     <filterColumn colId="4">
       <filters>
+        <filter val="Top 5 DP: Fibonacci Numbers"/>
         <filter val="Top 5 DP: Unbounded Knapsack"/>
         <filter val="Top 5 DP: Zero / One Knapsack"/>
       </filters>

--- a/sheet/AlgoSheet.xlsx
+++ b/sheet/AlgoSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workspace\repo\algo\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7DAEF9-BD84-4CCC-BC5E-F96127C04148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11928972-09A1-41F2-8C72-562C823EFEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
     <sheet name="Tips" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Algo!$A$4:$Q$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Algo!$A$4:$Q$92</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="345">
   <si>
     <t>https://www.reddit.com/r/csMajors/comments/uy7gg3/leetcode_tips_from_author_of_blind_75/</t>
   </si>
@@ -544,12 +544,6 @@
     <t>https://leetcode.com/problems/longest-increasing-subsequence/</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>longest incresing seq</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/longest-common-subsequence/</t>
   </si>
   <si>
@@ -1004,6 +998,87 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>53. Maximum Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/</t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>com.mine.linear.maxsubarray.MaximumSubarray</t>
+  </si>
+  <si>
+    <t>55. Jump Game</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game/</t>
+  </si>
+  <si>
+    <t>743. Network Delay Time</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/network-delay-time/</t>
+  </si>
+  <si>
+    <t>NeedCode</t>
+  </si>
+  <si>
+    <t>com.mine.graph.directed.nondag.dijkstra.NetworkDelayTime</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EaphyqKU4PQ</t>
+  </si>
+  <si>
+    <t>45. Jump Game II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game-ii/</t>
+  </si>
+  <si>
+    <t>134. Gas Station</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/gas-station/</t>
+  </si>
+  <si>
+    <t>846. Hand of Straights</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/hand-of-straights/</t>
+  </si>
+  <si>
+    <t>1899. Merge Triplets to Form Target Triplet</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-triplets-to-form-target-triplet/</t>
+  </si>
+  <si>
+    <t>763. Partition Labels</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-labels/</t>
+  </si>
+  <si>
+    <t>678. Valid Parenthesis String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parenthesis-string/</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>1584. Min Cost to Connect All Points</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-cost-to-connect-all-points/</t>
+  </si>
+  <si>
+    <t>LongestPalindrome(2D-dp)</t>
   </si>
 </sst>
 </file>
@@ -1146,22 +1221,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1171,13 +1245,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1548,7 +1626,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1563,50 +1641,50 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1614,7 +1692,7 @@
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1624,15 +1702,15 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1661,10 +1739,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1678,29 +1756,30 @@
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="69.42578125" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="85.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="F1" s="10"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="12.75">
-      <c r="A2" s="9"/>
-      <c r="B2" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="12.75">
       <c r="A4" s="2" t="s">
@@ -1730,26 +1809,26 @@
       <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>133</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="N4" s="18" t="s">
+      <c r="L4" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="P4" s="18" t="s">
-        <v>318</v>
+      <c r="P4" s="17" t="s">
+        <v>316</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>45</v>
@@ -1764,27 +1843,27 @@
         <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="H5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="J5" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="F5" s="17"/>
+      <c r="H5" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19" t="s">
-        <v>224</v>
+      <c r="O5" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="12.75" hidden="1">
@@ -1812,25 +1891,25 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="E8" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="N8" s="19" t="s">
+      <c r="I8" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19" t="s">
-        <v>234</v>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="12.75" hidden="1">
@@ -1851,27 +1930,27 @@
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>202</v>
+      <c r="E11" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="H11" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="N11" s="19" t="s">
+      <c r="I11" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19" t="s">
-        <v>199</v>
+      <c r="O11" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="12.75" hidden="1">
@@ -1884,84 +1963,84 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="J13" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="14" spans="1:17" ht="32.25" hidden="1" customHeight="1">
-      <c r="A14" s="18" t="s">
-        <v>179</v>
+      <c r="A14" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="E14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H14" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="N14" s="19" t="s">
+      <c r="I14" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="N14" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O14" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P14" s="19"/>
+      <c r="O14" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:17" ht="63.75" hidden="1">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="N15" s="19" t="s">
+      <c r="H15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19" t="s">
-        <v>209</v>
+      <c r="O15" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1972,27 +2051,27 @@
         <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H16" t="s">
         <v>140</v>
       </c>
       <c r="I16" t="s">
-        <v>272</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="N16" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="N16" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O16" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" s="19"/>
+      <c r="O16" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2003,7 +2082,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2011,7 +2090,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2019,7 +2098,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="12.75" hidden="1">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2027,7 +2106,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2038,30 +2117,30 @@
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H21" t="s">
         <v>140</v>
       </c>
       <c r="I21" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="J21" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19" t="s">
-        <v>283</v>
-      </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2072,7 +2151,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2080,7 +2159,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2091,205 +2170,205 @@
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>149</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" s="19"/>
+      <c r="E26" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="18"/>
       <c r="H26" t="s">
         <v>130</v>
       </c>
       <c r="I26" t="s">
         <v>134</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="N26" s="19" t="s">
+      <c r="N26" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O26" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P26" s="19"/>
+      <c r="O26" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" s="18"/>
       <c r="Q26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="F27" s="19"/>
-      <c r="H27" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="J27" s="17" t="s">
+      <c r="E27" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="N27" s="19" t="s">
+      <c r="F27" s="18"/>
+      <c r="H27" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="K27" s="18"/>
+      <c r="N27" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
       <c r="Q27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A28" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="N28" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O28" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="N28" s="19" t="s">
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="N30" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O28" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A30" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2301,13 +2380,13 @@
         <v>75</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2316,1259 +2395,1506 @@
       <c r="D34" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" t="s">
+        <v>324</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="N34" t="s">
+        <v>136</v>
+      </c>
+      <c r="O34" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>341</v>
+      </c>
+      <c r="H35" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35" t="s">
+        <v>342</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="N35" t="s">
+        <v>139</v>
+      </c>
+      <c r="O35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A36" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="12.75" hidden="1">
-      <c r="A36" s="2" t="s">
-        <v>81</v>
+      <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="H36" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" t="s">
+        <v>318</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="N36" t="s">
+        <v>136</v>
+      </c>
+      <c r="O36" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="12.75" hidden="1">
       <c r="A37" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="12.75" hidden="1">
+      <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="38.25" hidden="1">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:17" ht="38.25" hidden="1">
+      <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E38" t="s">
-        <v>223</v>
-      </c>
-      <c r="F38" s="18" t="s">
+      <c r="E39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H39" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I39" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O39" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="J38" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="N38" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O38" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="51" hidden="1">
-      <c r="A39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:17" ht="51" hidden="1">
+      <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="J39" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="N39" s="19" t="s">
+      <c r="H40" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="N40" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O39" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P39" s="19"/>
-    </row>
-    <row r="40" spans="1:17" ht="12.75" hidden="1">
-      <c r="A40" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="O40" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P40" s="18"/>
     </row>
     <row r="41" spans="1:17" ht="12.75" hidden="1">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="12.75" hidden="1">
       <c r="A42" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="12.75" hidden="1">
+      <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A43" s="15" t="s">
+    <row r="44" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A44" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E44" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="N44" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O44" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A45" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="N45" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O45" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A46" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="N46" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O46" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P46" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q46" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A47" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O47" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+    </row>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A48" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="N48" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+    </row>
+    <row r="49" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O49" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A50" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O50" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A51" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="N51" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="N52" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+    </row>
+    <row r="53" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O53" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A54" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="N54" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O54" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A55" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O55" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A56" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I56" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="H43" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="N43" s="19" t="s">
+      <c r="J56" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="N56" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O43" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A44" s="15" t="s">
+      <c r="O56" s="18"/>
+      <c r="P56" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q56" s="18"/>
+    </row>
+    <row r="57" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A57" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="B57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="K44" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="N44" s="19" t="s">
+      <c r="E57" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="N57" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O44" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A45" s="15" t="s">
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A58" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="19" t="s">
+      <c r="B58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D58" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="N45" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O45" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A46" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="N46" s="19" t="s">
+      <c r="E58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="N58" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O46" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A47" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="J47" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="N47" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A48" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="N48" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O48" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A49" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="N49" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O49" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A50" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="N50" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A51" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="J51" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="N51" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A52" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="J52" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="N52" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O52" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A53" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="N53" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O53" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A54" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="J54" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="O54" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A55" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="J55" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="N55" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q55" s="19"/>
-    </row>
-    <row r="56" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A56" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="J56" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="N56" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A57" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" t="s">
-        <v>170</v>
-      </c>
-      <c r="H57" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I57" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="J57" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="N57" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O57" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-    </row>
-    <row r="58" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A58" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="H58" t="s">
-        <v>130</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="J58" s="17" t="s">
+      <c r="O58" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A59" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="N58" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O58" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A59" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>185</v>
+      <c r="E59" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="H59" t="s">
         <v>130</v>
       </c>
-      <c r="I59" s="19" t="s">
+      <c r="I59" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="N59" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O59" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A60" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="J59" s="17" t="s">
+      <c r="H60" t="s">
+        <v>130</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="N60" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O60" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="N59" s="19" t="s">
+    </row>
+    <row r="61" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A61" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O61" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A62" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="18"/>
+      <c r="H62" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="N62" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O62" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A63" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="18"/>
+      <c r="H63" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="N63" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O63" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P63" s="18"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A64" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E64" s="18"/>
+      <c r="H64" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I64" t="s">
+        <v>192</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="N64" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O64" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P64" s="18"/>
+    </row>
+    <row r="65" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A65" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="N65" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O59" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A60" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="J60" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="N60" s="19" t="s">
+      <c r="O65" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="N66" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O66" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="N67" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O67" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+    </row>
+    <row r="68" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="H68" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="N68" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O60" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-    </row>
-    <row r="61" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A61" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" s="19"/>
-      <c r="H61" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="J61" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="N61" s="19" t="s">
+      <c r="O68" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+    </row>
+    <row r="69" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="H69" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="N69" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O61" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-    </row>
-    <row r="62" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A62" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" s="19"/>
-      <c r="H62" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="J62" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="N62" s="19" t="s">
+      <c r="O69" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" t="s">
+        <v>225</v>
+      </c>
+      <c r="F70" s="17"/>
+      <c r="H70" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="N70" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O62" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P62" s="19"/>
-    </row>
-    <row r="63" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A63" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E63" s="19"/>
-      <c r="H63" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I63" t="s">
-        <v>194</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="N63" s="19" t="s">
+      <c r="O70" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+    </row>
+    <row r="71" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="N71" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O63" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P63" s="19"/>
-    </row>
-    <row r="64" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A64" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="J64" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="N64" s="19" t="s">
+      <c r="O71" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+    </row>
+    <row r="72" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="N72" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O64" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A65" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="J65" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="N65" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O65" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A66" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="J66" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="N66" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O66" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-    </row>
-    <row r="67" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A67" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="H67" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="N67" s="19" t="s">
+      <c r="O72" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A73" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N73" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O67" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-    </row>
-    <row r="68" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A68" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="H68" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="J68" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="N68" s="19" t="s">
+      <c r="O73" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+    </row>
+    <row r="74" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A74" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="N74" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O68" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-    </row>
-    <row r="69" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A69" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E69" t="s">
-        <v>227</v>
-      </c>
-      <c r="F69" s="18"/>
-      <c r="H69" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I69" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="J69" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="N69" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O69" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-    </row>
-    <row r="70" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I70" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="J70" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="N70" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O70" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-    </row>
-    <row r="71" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A71" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="J71" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="N71" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="O71" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A72" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="J72" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="N72" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O72" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-    </row>
-    <row r="73" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A73" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I73" s="19" t="s">
+      <c r="O74" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P74" s="18"/>
+    </row>
+    <row r="75" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A75" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="J73" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="N73" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O73" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P73" s="19"/>
-    </row>
-    <row r="74" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A74" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E74" t="s">
-        <v>252</v>
-      </c>
-      <c r="H74" t="s">
-        <v>130</v>
-      </c>
-      <c r="I74" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="J74" s="17" t="s">
+      <c r="E75" t="s">
         <v>250</v>
-      </c>
-      <c r="N74" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O74" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P74" s="19"/>
-    </row>
-    <row r="75" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A75" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E75" t="s">
-        <v>255</v>
       </c>
       <c r="H75" t="s">
         <v>130</v>
       </c>
-      <c r="I75" t="s">
-        <v>254</v>
-      </c>
-      <c r="J75" s="17" t="s">
+      <c r="I75" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="J75" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="N75" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O75" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P75" s="18"/>
+    </row>
+    <row r="76" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A76" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E76" t="s">
         <v>253</v>
-      </c>
-      <c r="N75" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O75" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P75" s="19"/>
-    </row>
-    <row r="76" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A76" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E76" t="s">
-        <v>258</v>
       </c>
       <c r="H76" t="s">
         <v>130</v>
       </c>
       <c r="I76" t="s">
-        <v>257</v>
-      </c>
-      <c r="J76" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N76" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O76" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P76" s="18"/>
+    </row>
+    <row r="77" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A77" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" t="s">
         <v>256</v>
-      </c>
-      <c r="N76" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O76" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P76" s="19"/>
-    </row>
-    <row r="77" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A77" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E77" t="s">
-        <v>261</v>
       </c>
       <c r="H77" t="s">
         <v>130</v>
       </c>
       <c r="I77" t="s">
-        <v>260</v>
-      </c>
-      <c r="J77" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="N77" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O77" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P77" s="18"/>
+    </row>
+    <row r="78" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A78" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E78" t="s">
         <v>259</v>
-      </c>
-      <c r="N77" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O77" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P77" s="19"/>
-    </row>
-    <row r="78" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A78" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E78" t="s">
-        <v>264</v>
       </c>
       <c r="H78" t="s">
         <v>130</v>
       </c>
       <c r="I78" t="s">
+        <v>258</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N78" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O78" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P78" s="18"/>
+    </row>
+    <row r="79" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A79" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E79" t="s">
+        <v>262</v>
+      </c>
+      <c r="H79" t="s">
+        <v>130</v>
+      </c>
+      <c r="I79" t="s">
+        <v>261</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="N79" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O79" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P79" s="18"/>
+    </row>
+    <row r="80" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A80" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E80" t="s">
+        <v>268</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I80" t="s">
+        <v>267</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="N80" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O80" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P80" s="18"/>
+    </row>
+    <row r="81" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A81" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E81" t="s">
+        <v>265</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I81" t="s">
+        <v>264</v>
+      </c>
+      <c r="J81" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="J78" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="N78" s="19" t="s">
+      <c r="N81" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O78" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P78" s="19"/>
-    </row>
-    <row r="79" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A79" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E79" t="s">
-        <v>270</v>
-      </c>
-      <c r="H79" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I79" t="s">
-        <v>269</v>
-      </c>
-      <c r="J79" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="N79" s="19" t="s">
+      <c r="O81" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P81" s="18"/>
+    </row>
+    <row r="82" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A82" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" t="s">
+        <v>274</v>
+      </c>
+      <c r="H82" t="s">
+        <v>217</v>
+      </c>
+      <c r="I82" t="s">
+        <v>273</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="N82" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O79" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P79" s="19"/>
-    </row>
-    <row r="80" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A80" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E80" t="s">
-        <v>267</v>
-      </c>
-      <c r="H80" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I80" t="s">
-        <v>266</v>
-      </c>
-      <c r="J80" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="N80" s="19" t="s">
+      <c r="O82" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P82" s="18"/>
+    </row>
+    <row r="83" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A83" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" t="s">
+        <v>277</v>
+      </c>
+      <c r="H83" t="s">
+        <v>217</v>
+      </c>
+      <c r="I83" t="s">
+        <v>275</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="N83" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O80" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P80" s="19"/>
-    </row>
-    <row r="81" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A81" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E81" t="s">
-        <v>276</v>
-      </c>
-      <c r="H81" t="s">
-        <v>219</v>
-      </c>
-      <c r="I81" t="s">
-        <v>275</v>
-      </c>
-      <c r="J81" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="N81" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O81" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P81" s="19"/>
-    </row>
-    <row r="82" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A82" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E82" t="s">
-        <v>279</v>
-      </c>
-      <c r="H82" t="s">
-        <v>219</v>
-      </c>
-      <c r="I82" t="s">
-        <v>277</v>
-      </c>
-      <c r="J82" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="N82" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O82" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P82" s="19"/>
-    </row>
-    <row r="83" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A83" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F83" t="s">
-        <v>84</v>
-      </c>
-      <c r="H83" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I83" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="J83" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="N83" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="O83" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P83" s="19"/>
+      <c r="O83" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P83" s="18"/>
     </row>
     <row r="84" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
       <c r="F84" t="s">
         <v>84</v>
       </c>
-      <c r="H84" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="J84" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="N84" s="19" t="s">
+      <c r="H84" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I84" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="N84" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O84" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P84" s="19"/>
+      <c r="O84" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P84" s="18"/>
+    </row>
+    <row r="85" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F85" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I85" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="J85" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="N85" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O85" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P85" s="18"/>
+    </row>
+    <row r="86" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="H86" t="s">
+        <v>140</v>
+      </c>
+      <c r="I86" t="s">
+        <v>322</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="N86" t="s">
+        <v>139</v>
+      </c>
+      <c r="O86" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A87" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="H87" t="s">
+        <v>140</v>
+      </c>
+      <c r="I87" t="s">
+        <v>329</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="N87" t="s">
+        <v>139</v>
+      </c>
+      <c r="O87" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A88" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="H88" t="s">
+        <v>140</v>
+      </c>
+      <c r="I88" t="s">
+        <v>331</v>
+      </c>
+      <c r="J88" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="N88" t="s">
+        <v>139</v>
+      </c>
+      <c r="O88" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A89" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="H89" t="s">
+        <v>140</v>
+      </c>
+      <c r="I89" t="s">
+        <v>333</v>
+      </c>
+      <c r="J89" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="N89" t="s">
+        <v>139</v>
+      </c>
+      <c r="O89" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A90" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="H90" t="s">
+        <v>140</v>
+      </c>
+      <c r="I90" t="s">
+        <v>335</v>
+      </c>
+      <c r="J90" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="N90" t="s">
+        <v>139</v>
+      </c>
+      <c r="O90" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="H91" t="s">
+        <v>140</v>
+      </c>
+      <c r="I91" t="s">
+        <v>337</v>
+      </c>
+      <c r="J91" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="N91" t="s">
+        <v>139</v>
+      </c>
+      <c r="O91" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="H92" t="s">
+        <v>140</v>
+      </c>
+      <c r="I92" t="s">
+        <v>339</v>
+      </c>
+      <c r="J92" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="N92" t="s">
+        <v>139</v>
+      </c>
+      <c r="O92" t="s">
+        <v>320</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Q84" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <autoFilter ref="A4:Q92" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="Dynamic Programming"/>
@@ -3576,7 +3902,11 @@
     </filterColumn>
     <filterColumn colId="4">
       <filters>
+        <filter val="Longest Common Subsequence"/>
+        <filter val="longest incresing seq"/>
         <filter val="Top 5 DP: Fibonacci Numbers"/>
+        <filter val="Top 5 DP: Longest Common Subsequence"/>
+        <filter val="Top 5 DP: Palindromes"/>
         <filter val="Top 5 DP: Unbounded Knapsack"/>
         <filter val="Top 5 DP: Zero / One Knapsack"/>
       </filters>
@@ -3585,64 +3915,74 @@
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="J26" r:id="rId2" xr:uid="{6FE229EF-6142-4FF8-8C7F-F45A98A56AE0}"/>
-    <hyperlink ref="J43" r:id="rId3" xr:uid="{C79B168A-C3B3-45BC-9D5D-E2BB702ACF7C}"/>
-    <hyperlink ref="J44" r:id="rId4" xr:uid="{D7F1C62B-E060-4687-8A88-3BBDCBBBE9D5}"/>
-    <hyperlink ref="J45" r:id="rId5" xr:uid="{367299A1-8B8B-4295-96A1-34916F004B1C}"/>
-    <hyperlink ref="J46" r:id="rId6" xr:uid="{D09FF0AE-8898-4C3C-91F9-91D39B0EE7D4}"/>
-    <hyperlink ref="J48" r:id="rId7" xr:uid="{21FF7C3F-F43E-4E4B-8030-F92111A9C7C4}"/>
-    <hyperlink ref="J49" r:id="rId8" xr:uid="{C3A0A451-232F-4437-A167-464565845DA1}"/>
-    <hyperlink ref="J52" r:id="rId9" xr:uid="{A9EF6C77-8D93-4861-A266-E6A8B9016219}"/>
-    <hyperlink ref="J53" r:id="rId10" xr:uid="{1B1BB03C-BFF2-43B0-B87A-1EA5B3757BFD}"/>
-    <hyperlink ref="J54" r:id="rId11" xr:uid="{CBC5ACAD-16E0-46D3-ADB0-EB6EEEA3B506}"/>
+    <hyperlink ref="J44" r:id="rId3" xr:uid="{C79B168A-C3B3-45BC-9D5D-E2BB702ACF7C}"/>
+    <hyperlink ref="J45" r:id="rId4" xr:uid="{D7F1C62B-E060-4687-8A88-3BBDCBBBE9D5}"/>
+    <hyperlink ref="J46" r:id="rId5" xr:uid="{367299A1-8B8B-4295-96A1-34916F004B1C}"/>
+    <hyperlink ref="J47" r:id="rId6" xr:uid="{D09FF0AE-8898-4C3C-91F9-91D39B0EE7D4}"/>
+    <hyperlink ref="J49" r:id="rId7" xr:uid="{21FF7C3F-F43E-4E4B-8030-F92111A9C7C4}"/>
+    <hyperlink ref="J50" r:id="rId8" xr:uid="{C3A0A451-232F-4437-A167-464565845DA1}"/>
+    <hyperlink ref="J53" r:id="rId9" xr:uid="{A9EF6C77-8D93-4861-A266-E6A8B9016219}"/>
+    <hyperlink ref="J54" r:id="rId10" xr:uid="{1B1BB03C-BFF2-43B0-B87A-1EA5B3757BFD}"/>
+    <hyperlink ref="J55" r:id="rId11" xr:uid="{CBC5ACAD-16E0-46D3-ADB0-EB6EEEA3B506}"/>
     <hyperlink ref="J28" r:id="rId12" xr:uid="{4ECE2808-9FAC-4542-82B9-5C2D9F5604B2}"/>
-    <hyperlink ref="J57" r:id="rId13" xr:uid="{2258A3D7-F7A8-46DD-8038-10D20D199086}"/>
+    <hyperlink ref="J58" r:id="rId13" xr:uid="{2258A3D7-F7A8-46DD-8038-10D20D199086}"/>
     <hyperlink ref="J14" r:id="rId14" xr:uid="{F2A73131-872E-4E2E-99CA-B0CAFA85C074}"/>
-    <hyperlink ref="J58" r:id="rId15" xr:uid="{B22658B6-80E0-4528-A426-689D11DCEEDF}"/>
-    <hyperlink ref="J59" r:id="rId16" xr:uid="{3BC8D58B-AE15-46D7-8ECA-ED13FD12D011}"/>
-    <hyperlink ref="J60" r:id="rId17" xr:uid="{8BD11E9A-B48C-4867-8AA2-D77F45CB7D01}"/>
-    <hyperlink ref="J61" r:id="rId18" xr:uid="{61C3E937-D92B-4AA3-ADBC-66FDC7F33C3D}"/>
-    <hyperlink ref="J62" r:id="rId19" xr:uid="{445AA0F1-7A74-4184-B5CC-13C962550712}"/>
-    <hyperlink ref="J63" r:id="rId20" xr:uid="{FC5266CA-93BA-4116-9AF5-E4AC6417400D}"/>
-    <hyperlink ref="J64" r:id="rId21" xr:uid="{8A6C7D54-159A-4C1A-B994-D1983702376F}"/>
+    <hyperlink ref="J59" r:id="rId15" xr:uid="{B22658B6-80E0-4528-A426-689D11DCEEDF}"/>
+    <hyperlink ref="J60" r:id="rId16" xr:uid="{3BC8D58B-AE15-46D7-8ECA-ED13FD12D011}"/>
+    <hyperlink ref="J61" r:id="rId17" xr:uid="{8BD11E9A-B48C-4867-8AA2-D77F45CB7D01}"/>
+    <hyperlink ref="J62" r:id="rId18" xr:uid="{61C3E937-D92B-4AA3-ADBC-66FDC7F33C3D}"/>
+    <hyperlink ref="J63" r:id="rId19" xr:uid="{445AA0F1-7A74-4184-B5CC-13C962550712}"/>
+    <hyperlink ref="J64" r:id="rId20" xr:uid="{FC5266CA-93BA-4116-9AF5-E4AC6417400D}"/>
+    <hyperlink ref="J65" r:id="rId21" xr:uid="{8A6C7D54-159A-4C1A-B994-D1983702376F}"/>
     <hyperlink ref="J11" r:id="rId22" xr:uid="{30476345-24B9-4A88-A164-4E12342C931A}"/>
-    <hyperlink ref="J65" r:id="rId23" xr:uid="{08D9DDBE-4FDB-438D-883D-54A27425DE65}"/>
-    <hyperlink ref="J66" r:id="rId24" xr:uid="{FF820546-BFB1-46C4-9355-6EBD13C9C59E}"/>
+    <hyperlink ref="J66" r:id="rId23" xr:uid="{08D9DDBE-4FDB-438D-883D-54A27425DE65}"/>
+    <hyperlink ref="J67" r:id="rId24" xr:uid="{FF820546-BFB1-46C4-9355-6EBD13C9C59E}"/>
     <hyperlink ref="J15" r:id="rId25" xr:uid="{7BFBF960-8769-481D-97A9-2002C0C1D736}"/>
-    <hyperlink ref="J67" r:id="rId26" xr:uid="{F8824C8A-75A7-4C08-9A10-0EFE13C9250D}"/>
-    <hyperlink ref="J68" r:id="rId27" xr:uid="{B45CE05B-86A7-4835-BEBD-1ACDB189E89A}"/>
-    <hyperlink ref="J38" r:id="rId28" xr:uid="{1320A040-9264-4DAE-8296-F7C0DF50162B}"/>
+    <hyperlink ref="J68" r:id="rId26" xr:uid="{F8824C8A-75A7-4C08-9A10-0EFE13C9250D}"/>
+    <hyperlink ref="J69" r:id="rId27" xr:uid="{B45CE05B-86A7-4835-BEBD-1ACDB189E89A}"/>
+    <hyperlink ref="J39" r:id="rId28" xr:uid="{1320A040-9264-4DAE-8296-F7C0DF50162B}"/>
     <hyperlink ref="J5" r:id="rId29" xr:uid="{1749DFAF-D758-476F-9A7F-E82EC9910406}"/>
-    <hyperlink ref="J69" r:id="rId30" xr:uid="{93795F3A-FD40-4D05-801C-B5C20EB76402}"/>
+    <hyperlink ref="J70" r:id="rId30" xr:uid="{93795F3A-FD40-4D05-801C-B5C20EB76402}"/>
     <hyperlink ref="J13" r:id="rId31" xr:uid="{7C5E4D4B-4674-4E7D-8D08-26F946ECC1FB}"/>
     <hyperlink ref="J8" r:id="rId32" xr:uid="{DDDC26B0-5DD7-49EE-8E3C-B2E9873FEF58}"/>
-    <hyperlink ref="J70" r:id="rId33" xr:uid="{EDD2AAF4-7C71-47A0-96CB-AB8E1DCF1F91}"/>
-    <hyperlink ref="J71" r:id="rId34" xr:uid="{4EE70842-A496-47C8-8098-DB77B1EBE861}"/>
-    <hyperlink ref="J72" r:id="rId35" xr:uid="{390D7BD3-39A4-457D-B6F1-37F69CFB234D}"/>
-    <hyperlink ref="J73" r:id="rId36" xr:uid="{0A7C3064-8D04-4C96-A035-4EE29B199FE3}"/>
-    <hyperlink ref="J74" r:id="rId37" xr:uid="{6F6E7001-9B43-4846-8A56-440BE9A3BC92}"/>
-    <hyperlink ref="J75" r:id="rId38" xr:uid="{84A39B52-7562-4C8D-9CB0-E45873906FD6}"/>
-    <hyperlink ref="J76" r:id="rId39" xr:uid="{60D8930D-5E92-41F0-9BCC-3CE79758E12A}"/>
-    <hyperlink ref="J77" r:id="rId40" xr:uid="{08CF7C5C-DC22-40DE-A4AB-B91FD2994755}"/>
-    <hyperlink ref="J78" r:id="rId41" xr:uid="{2CC3B103-9749-4A7D-B073-0A08D10C6036}"/>
-    <hyperlink ref="J79" r:id="rId42" xr:uid="{4B186235-5B68-4933-B19A-D9FBA7A2F332}"/>
-    <hyperlink ref="J80" r:id="rId43" xr:uid="{3D7BAA61-051B-4E54-A8AC-FF9EBFA22234}"/>
-    <hyperlink ref="J81" r:id="rId44" xr:uid="{0ADC6DFE-2CE0-451C-ACDB-964D40ECBA3C}"/>
+    <hyperlink ref="J71" r:id="rId33" xr:uid="{EDD2AAF4-7C71-47A0-96CB-AB8E1DCF1F91}"/>
+    <hyperlink ref="J72" r:id="rId34" xr:uid="{4EE70842-A496-47C8-8098-DB77B1EBE861}"/>
+    <hyperlink ref="J73" r:id="rId35" xr:uid="{390D7BD3-39A4-457D-B6F1-37F69CFB234D}"/>
+    <hyperlink ref="J74" r:id="rId36" xr:uid="{0A7C3064-8D04-4C96-A035-4EE29B199FE3}"/>
+    <hyperlink ref="J75" r:id="rId37" xr:uid="{6F6E7001-9B43-4846-8A56-440BE9A3BC92}"/>
+    <hyperlink ref="J76" r:id="rId38" xr:uid="{84A39B52-7562-4C8D-9CB0-E45873906FD6}"/>
+    <hyperlink ref="J77" r:id="rId39" xr:uid="{60D8930D-5E92-41F0-9BCC-3CE79758E12A}"/>
+    <hyperlink ref="J78" r:id="rId40" xr:uid="{08CF7C5C-DC22-40DE-A4AB-B91FD2994755}"/>
+    <hyperlink ref="J79" r:id="rId41" xr:uid="{2CC3B103-9749-4A7D-B073-0A08D10C6036}"/>
+    <hyperlink ref="J80" r:id="rId42" xr:uid="{4B186235-5B68-4933-B19A-D9FBA7A2F332}"/>
+    <hyperlink ref="J81" r:id="rId43" xr:uid="{3D7BAA61-051B-4E54-A8AC-FF9EBFA22234}"/>
+    <hyperlink ref="J82" r:id="rId44" xr:uid="{0ADC6DFE-2CE0-451C-ACDB-964D40ECBA3C}"/>
     <hyperlink ref="J16" r:id="rId45" xr:uid="{440876B8-DCFC-43FE-93DC-96DC46FE7AAD}"/>
-    <hyperlink ref="J82" r:id="rId46" xr:uid="{F5C66545-EA47-4369-9D27-713BA9909825}"/>
+    <hyperlink ref="J83" r:id="rId46" xr:uid="{F5C66545-EA47-4369-9D27-713BA9909825}"/>
     <hyperlink ref="J21" r:id="rId47" xr:uid="{905058F5-BD84-4938-95D9-2E44A080C80A}"/>
-    <hyperlink ref="J39" r:id="rId48" xr:uid="{80D29D06-4752-40E1-9A2B-4F5A3C7FF7BF}"/>
-    <hyperlink ref="J83" r:id="rId49" xr:uid="{50F3DCFE-49AC-4427-AC99-FE63ADE551D8}"/>
-    <hyperlink ref="J84" r:id="rId50" xr:uid="{763B90EF-85D7-4B6F-8967-EF99A3F8A3EA}"/>
+    <hyperlink ref="J40" r:id="rId48" xr:uid="{80D29D06-4752-40E1-9A2B-4F5A3C7FF7BF}"/>
+    <hyperlink ref="J84" r:id="rId49" xr:uid="{50F3DCFE-49AC-4427-AC99-FE63ADE551D8}"/>
+    <hyperlink ref="J85" r:id="rId50" xr:uid="{763B90EF-85D7-4B6F-8967-EF99A3F8A3EA}"/>
     <hyperlink ref="J27" r:id="rId51" xr:uid="{6725C166-C311-4068-A72F-EB2D4DAF6CB1}"/>
-    <hyperlink ref="J55" r:id="rId52" xr:uid="{24BC9B84-BE63-4380-84C0-2A518DE478B3}"/>
-    <hyperlink ref="J56" r:id="rId53" xr:uid="{BD9AE522-7F93-4F4C-B70D-BAE4A91F8EEE}"/>
-    <hyperlink ref="J50" r:id="rId54" xr:uid="{6BC5EB10-6E0C-49DF-82D6-D274FFEE7825}"/>
-    <hyperlink ref="J51" r:id="rId55" xr:uid="{AEBD6CA6-3C8D-479D-BB8F-01041CC03115}"/>
+    <hyperlink ref="J56" r:id="rId52" xr:uid="{24BC9B84-BE63-4380-84C0-2A518DE478B3}"/>
+    <hyperlink ref="J57" r:id="rId53" xr:uid="{BD9AE522-7F93-4F4C-B70D-BAE4A91F8EEE}"/>
+    <hyperlink ref="J51" r:id="rId54" xr:uid="{6BC5EB10-6E0C-49DF-82D6-D274FFEE7825}"/>
+    <hyperlink ref="J52" r:id="rId55" xr:uid="{AEBD6CA6-3C8D-479D-BB8F-01041CC03115}"/>
     <hyperlink ref="J30" r:id="rId56" xr:uid="{62AA72AF-E376-49EE-9653-9FD7121946A3}"/>
-    <hyperlink ref="J47" r:id="rId57" xr:uid="{66E9064E-A2B6-441D-8064-A154371FB282}"/>
+    <hyperlink ref="J48" r:id="rId57" xr:uid="{66E9064E-A2B6-441D-8064-A154371FB282}"/>
+    <hyperlink ref="J86" r:id="rId58" xr:uid="{A422E696-6D1A-440A-8762-BE615807567A}"/>
+    <hyperlink ref="J34" r:id="rId59" xr:uid="{AABCDAD9-F74D-4664-83F3-2D90D9E8F9DB}"/>
+    <hyperlink ref="K34" r:id="rId60" xr:uid="{792BE23B-BB85-40C5-A6C7-C2FDBC6E1590}"/>
+    <hyperlink ref="J87" r:id="rId61" xr:uid="{BC9815E3-64B5-4C79-BD84-6535B74A3D14}"/>
+    <hyperlink ref="J88" r:id="rId62" xr:uid="{162F682A-A191-4030-9479-5A10D40E836B}"/>
+    <hyperlink ref="J89" r:id="rId63" xr:uid="{BD262D1D-88C7-4EDC-893F-F91918EAD755}"/>
+    <hyperlink ref="J90" r:id="rId64" xr:uid="{7DEF403A-658C-46AD-911C-F0DDE85BF92E}"/>
+    <hyperlink ref="J91" r:id="rId65" xr:uid="{FD96565A-4DD5-4183-9653-AB2173017735}"/>
+    <hyperlink ref="J92" r:id="rId66" xr:uid="{AAD7E6E5-CD59-41B1-8F88-E730BA46C5A2}"/>
+    <hyperlink ref="J35" r:id="rId67" xr:uid="{F74A9764-1697-4590-8560-C6049FC4CF63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -3655,7 +3995,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3664,7 +4004,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3672,7 +4012,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3680,7 +4020,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3691,12 +4031,12 @@
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3707,7 +4047,7 @@
       <c r="A7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3751,7 +4091,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3769,7 +4109,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>104</v>
       </c>
     </row>

--- a/sheet/AlgoSheet.xlsx
+++ b/sheet/AlgoSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workspace\repo\algo\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11928972-09A1-41F2-8C72-562C823EFEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D4252D-6E30-42D8-ACBC-627D295EB553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1741,8 +1741,8 @@
   </sheetPr>
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1834,7 +1834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="51" hidden="1">
+    <row r="5" spans="1:17" ht="12.75" hidden="1">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1884,7 +1884,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="51" hidden="1">
+    <row r="8" spans="1:17" ht="12.75" hidden="1">
       <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="38.25" hidden="1">
+    <row r="11" spans="1:17" ht="12.75" hidden="1">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="38.25" hidden="1">
+    <row r="13" spans="1:17" ht="12.75" hidden="1">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:17" ht="63.75" hidden="1">
+    <row r="15" spans="1:17" ht="12.75" hidden="1">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" customHeight="1">
+    <row r="26" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>68</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" customHeight="1">
+    <row r="27" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>68</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1">
+    <row r="28" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" customHeight="1">
+    <row r="29" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>68</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1">
+    <row r="30" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>68</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="38.25" hidden="1">
+    <row r="39" spans="1:17" ht="12.75" hidden="1">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="51" hidden="1">
+    <row r="40" spans="1:17" ht="12.75" hidden="1">
       <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.75" customHeight="1">
+    <row r="44" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>68</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.75" customHeight="1">
+    <row r="45" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>68</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.75" customHeight="1">
+    <row r="46" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>68</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75" customHeight="1">
+    <row r="47" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="14" t="s">
         <v>68</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="P47" s="18"/>
       <c r="Q47" s="18"/>
     </row>
-    <row r="48" spans="1:17" ht="15.75" customHeight="1">
+    <row r="48" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>68</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.75" customHeight="1">
+    <row r="50" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="14" t="s">
         <v>68</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15.75" customHeight="1">
+    <row r="51" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A51" s="14" t="s">
         <v>68</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15.75" customHeight="1">
+    <row r="52" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>68</v>
       </c>
@@ -2914,7 +2914,7 @@
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
     </row>
-    <row r="55" spans="1:17" ht="15.75" customHeight="1">
+    <row r="55" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="14" t="s">
         <v>68</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15.75" customHeight="1">
+    <row r="56" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="14" t="s">
         <v>68</v>
       </c>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="Q56" s="18"/>
     </row>
-    <row r="57" spans="1:17" ht="15.75" customHeight="1">
+    <row r="57" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="14" t="s">
         <v>68</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="P57" s="18"/>
       <c r="Q57" s="18"/>
     </row>
-    <row r="58" spans="1:17" ht="15.75" customHeight="1">
+    <row r="58" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A58" s="14" t="s">
         <v>68</v>
       </c>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="P74" s="18"/>
     </row>
-    <row r="75" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+    <row r="75" spans="1:17" ht="15.75" customHeight="1">
       <c r="A75" s="17" t="s">
         <v>247</v>
       </c>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="P75" s="18"/>
     </row>
-    <row r="76" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+    <row r="76" spans="1:17" ht="15.75" customHeight="1">
       <c r="A76" s="17" t="s">
         <v>247</v>
       </c>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="P76" s="18"/>
     </row>
-    <row r="77" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+    <row r="77" spans="1:17" ht="15.75" customHeight="1">
       <c r="A77" s="17" t="s">
         <v>247</v>
       </c>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="P77" s="18"/>
     </row>
-    <row r="78" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+    <row r="78" spans="1:17" ht="15.75" customHeight="1">
       <c r="A78" s="17" t="s">
         <v>247</v>
       </c>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="P78" s="18"/>
     </row>
-    <row r="79" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+    <row r="79" spans="1:17" ht="15.75" customHeight="1">
       <c r="A79" s="17" t="s">
         <v>247</v>
       </c>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="P79" s="18"/>
     </row>
-    <row r="80" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+    <row r="80" spans="1:17" ht="15.75" customHeight="1">
       <c r="A80" s="17" t="s">
         <v>247</v>
       </c>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="P80" s="18"/>
     </row>
-    <row r="81" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="81" spans="1:16" ht="15.75" customHeight="1">
       <c r="A81" s="17" t="s">
         <v>247</v>
       </c>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="P81" s="18"/>
     </row>
-    <row r="82" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="82" spans="1:16" ht="15.75" customHeight="1">
       <c r="A82" s="17" t="s">
         <v>247</v>
       </c>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="P82" s="18"/>
     </row>
-    <row r="83" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+    <row r="83" spans="1:16" ht="15.75" customHeight="1">
       <c r="A83" s="17" t="s">
         <v>247</v>
       </c>
@@ -3897,18 +3897,7 @@
   <autoFilter ref="A4:Q92" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Dynamic Programming"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Longest Common Subsequence"/>
-        <filter val="longest incresing seq"/>
-        <filter val="Top 5 DP: Fibonacci Numbers"/>
-        <filter val="Top 5 DP: Longest Common Subsequence"/>
-        <filter val="Top 5 DP: Palindromes"/>
-        <filter val="Top 5 DP: Unbounded Knapsack"/>
-        <filter val="Top 5 DP: Zero / One Knapsack"/>
+        <filter val="Tree"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3995,7 +3984,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4081,7 +4070,7 @@
   </sheetPr>
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/sheet/AlgoSheet.xlsx
+++ b/sheet/AlgoSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\workspace\repo\algo\sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D4252D-6E30-42D8-ACBC-627D295EB553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC15D01C-D8AB-4684-888A-9B873B810CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="599" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,14 @@
     <sheet name="Tips" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Algo!$A$4:$Q$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Algo!$A$4:$Q$93</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="357">
   <si>
     <t>https://www.reddit.com/r/csMajors/comments/uy7gg3/leetcode_tips_from_author_of_blind_75/</t>
   </si>
@@ -985,9 +985,6 @@
     <t>516. Longest Palindromic Subsequence</t>
   </si>
   <si>
-    <t>Since House[1] and House[n] are adjacent, they cannot be robbed together. Therefore, the problem becomes to rob either House[1]-House[n-1] or House[2]-House[n], depending on which choice offers more money.</t>
-  </si>
-  <si>
     <t>com.mine.dp.houserobber.*</t>
   </si>
   <si>
@@ -1079,6 +1076,180 @@
   </si>
   <si>
     <t>LongestPalindrome(2D-dp)</t>
+  </si>
+  <si>
+    <t>/**
+         * Recurrence Relation:
+         *    f(k) = f(k-1) + f(k-2)
+         *    f(2) = f(1) + f(0)
+         *         = 1 + 1
+         *         = 2
+         *
+         * Base Case:
+         *   f(0) = 1
+         *   f(1) = 1
+         */</t>
+  </si>
+  <si>
+    <t>/*
+        Hints:
+            1. Is only tracking a single sum enough to solve the problem?
+            2. How does tracking an odd sum and an even sum reduce the number of states?
+            3. max possible sum = 10^5/2 x 10^5 &gt; Integer.MAX
+            4. max possible number = 10^5 &lt; Integer.MAX
+         */
+        /*
+            1. subproblem - suffix[i:]
+                f(i,0) =&gt; first number in the max-sum sub-sequence is even index
+                f(i,1) =&gt; first number in the max-sum sub-sequence is odd index
+            2. guessing to relate recurrence
+               f(i, 0) = max{f(i+1, 1) + nums[i], f(i+1, 0)}
+               f(i, 1) = max{f(i+1, 0) - nums[i], f(i+1, 1)}
+            3. goal: f(0, 0)
+            5. base case : f(n,0)=f(n,1)=0
+            6. top. order:
+                i: n-1....0
+                    odd/even
+            7. space complexity: O(2)=O(1)
+            8. time complexity: O(2n)=O(n)
+         */</t>
+  </si>
+  <si>
+    <t>/**
+         *  Recurrence Relation:
+         *      f(i) = max{arr[i] + f(i+2) , f(i+1)}
+         *  Base:
+         *      f(&gt;=n) = 0
+         *  Goal:
+         *      f(0)
+         */</t>
+  </si>
+  <si>
+    <t>/*
+        hints: Since House[1] and House[n] are adjacent, they cannot be robbed together.
+                Therefore, the problem becomes to rob either House[1]-House[n-1] or House[2]-House[n], depending on which choice offers more money.
+                Now the problem has degenerated to the House Robber, which is already been solved.
+         */
+        /**
+         *  Recurrence Relation:
+         *      HR2(0, n-1) = max{HR1(0, n-2), HR1(1, n-1)}
+         */</t>
+  </si>
+  <si>
+    <t>/**
+         * x = text1
+         * y = text2
+         *
+         * Recurrence Relation:
+         *  - f(i,j) = max{ f(i+1, j) for move forward i, f(i,j+1) for move forward j, f(i+1,j+1) + equal(i,j) }
+         *
+         * Base case:
+         *  - f(|x|, j) = 0
+         *  - f(i, |y|) = 0
+         *
+         * Goal:
+         *  - f(0,0) for x[0:] and y[0:]
+         *
+         */</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //N choices for a subproblem(i): N numbers points to a number at i
+        //N subproblem(i) for a sequence which ends at i
+        //O(N^2)
+        //version 1
+        //from vertex i
+        //to different vertex j(i+1.......n)
+        //version 2
+        //from different vertex j (0.....i-1)
+        //to the vertex i</t>
+  </si>
+  <si>
+    <t>public String longestPalindrome(String s) {
+        int max = 0;
+        int start = 0;
+        boolean[][] dp = new boolean[s.length()][s.length()];
+        for(int size=1;size&lt;=s.length();size++)
+        {
+            for(int i=0, j = i+size-1 ;j&lt;s.length();j=++i+size-1)
+            {
+//                int j = i+size-1;</t>
+  </si>
+  <si>
+    <t>/*
+            Sub-problem:
+                substring[i:j]
+            Recurrence Relation:
+                f(i,j) = max{ f(i+1,j),
+                            f(i,j-1) ,
+                            f(i+1,j-1) + (s[i]==s[j] ? 2 : 0)
+                            | if i&lt;=j }
+            Base case:
+                f(i,j=i) = 1
+            Goal:
+                f(0, n-1)
+            Take-away:
+            Could we apply the above recurrence relation to question - longest palindrome substring ?
+                - let's say if we're gonna return the value of the longest length of palindrome
+                    - instead of substring as return type
+                - Why can't we use Math.max to resolve it ?
+                    - No. becos the integer value of sub-problem cannot tell if is palindrome
+                        - The main difference why above function works is
+                            - subsequence(0/1 in order) vs substring(contiguous)
+         */</t>
+  </si>
+  <si>
+    <t>/**
+         * s = amount
+         * Recurrence Relation
+         *      f(s) = min(f(s-coin) + 1 | for any coin in coins)
+         *
+         * Base case:
+         *      f(0) = 0; //valid combination
+         *      f(s&lt;0) = -1; //invalid combination
+         *
+         * max possible #no = amount
+         *
+         *             to find f(n)
+         */</t>
+  </si>
+  <si>
+    <t>/**
+         * Idea:
+         *  - dfs/backtrack for a combination nCr
+         *      - not quit so ....becos 1 + 1 + 1 + 2 = 5 , 1 is duplicate number
+         *  - duplicate number/coin is allowed in a combination
+         *      - use it repeatedly until going to another coin
+         *          - traverse by suffix[i:] (or prefix[:i]) to make sure previous coins won't be reused
+         *              - e.g coins[1, 2, 5]
+         *                  - 1+.....+1+ 2+....+2+ 5+....+5 in a particular sequence
+         *                  - X Ones , Y twos , Z fives   for 0&lt;=(X, Y, Z)
+         * subproblem:
+         *      suffix[i:] with sum = amount
+         *
+         * Recurrence Relations:
+         *  f(i, k) = f(i, k - coins[i]) + f(i+1, k) //suffix way: i+1 , prefix way: i-1
+         *
+         * Base Case:
+         *  f(i,0) = 1
+         *
+         * Goal:
+         *  f(0,S) //suffix[0:]
+         */</t>
+  </si>
+  <si>
+    <t>/*
+            1. suffix [i:] as subproblem
+            2. f(i) = min{ f(k) + costs[j] | for any j=0..2
+                             And days[k] &gt;= days[i] + day-pass[j] }
+            beware: the date on "days[i] + day-pass[j]" th is not covered by the ticket
+            3. f(i&gt;=n) = 0
+         */</t>
+  </si>
+  <si>
+    <t>longest-substring-with-at-most-k-distinct-characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/</t>
   </si>
 </sst>
 </file>
@@ -1739,10 +1910,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1828,7 +1999,7 @@
         <v>141</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>45</v>
@@ -2009,7 +2180,7 @@
       </c>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:17" ht="12.75" hidden="1">
+    <row r="15" spans="1:17" ht="32.25" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -2023,120 +2194,111 @@
         <v>140</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>209</v>
+        <v>355</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>208</v>
+        <v>356</v>
       </c>
       <c r="N15" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O15" s="18" t="s">
-        <v>142</v>
-      </c>
+      <c r="O15" s="18"/>
       <c r="P15" s="18"/>
-      <c r="Q15" s="18" t="s">
+    </row>
+    <row r="16" spans="1:17" ht="12.75">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" t="s">
-        <v>270</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" t="s">
+        <v>140</v>
+      </c>
+      <c r="I17" t="s">
+        <v>270</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>58</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="12.75" hidden="1">
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="12.75" hidden="1">
+      <c r="A21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A21" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" t="s">
-        <v>280</v>
-      </c>
-      <c r="H21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" t="s">
-        <v>279</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" hidden="1" customHeight="1">
@@ -2144,75 +2306,72 @@
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" t="s">
+        <v>279</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="N22" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>66</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A25" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="12.75" hidden="1">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:17" ht="12.75" hidden="1">
+      <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="H26" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="N26" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="O26" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P26" s="18"/>
-      <c r="Q26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:17" ht="140.25" hidden="1">
       <c r="A27" s="14" t="s">
         <v>68</v>
       </c>
@@ -2229,136 +2388,176 @@
         <v>291</v>
       </c>
       <c r="F27" s="18"/>
-      <c r="H27" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>290</v>
+      <c r="H27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" t="s">
+        <v>134</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="K27" s="18"/>
+        <v>132</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>344</v>
+      </c>
       <c r="N27" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O27" s="18"/>
+      <c r="O27" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="P27" s="18"/>
       <c r="Q27" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="318.75" hidden="1">
       <c r="A28" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>304</v>
-      </c>
+      <c r="E28" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" s="18"/>
       <c r="H28" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>167</v>
+        <v>290</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>166</v>
+        <v>289</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>345</v>
       </c>
       <c r="N28" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O28" s="18" t="s">
-        <v>142</v>
-      </c>
+      <c r="O28" s="18"/>
       <c r="P28" s="18"/>
-      <c r="Q28" s="18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="102" hidden="1">
       <c r="A29" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>304</v>
+      <c r="E29" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>165</v>
+        <v>137</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>346</v>
       </c>
       <c r="N29" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O29" s="18"/>
+      <c r="O29" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="P29" s="18"/>
       <c r="Q29" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="153" hidden="1">
       <c r="A30" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>304</v>
+      <c r="E30" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>309</v>
+        <v>143</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="N30" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O30" s="18"/>
+      <c r="O30" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q30" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="204" hidden="1">
       <c r="A31" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" hidden="1" customHeight="1">
@@ -2366,58 +2565,34 @@
         <v>68</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A33" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="12.75" hidden="1">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:17" ht="12.75" hidden="1">
+      <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10" t="s">
+      <c r="B34" s="2"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" t="s">
-        <v>324</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="K34" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="N34" t="s">
-        <v>136</v>
-      </c>
-      <c r="O34" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15.75" hidden="1" customHeight="1">
@@ -2425,28 +2600,33 @@
         <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s">
         <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="K35" s="22"/>
+        <v>324</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>327</v>
+      </c>
       <c r="N35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O35" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q35" t="s">
         <v>326</v>
       </c>
     </row>
@@ -2455,139 +2635,136 @@
         <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>340</v>
+      </c>
+      <c r="H36" t="s">
+        <v>140</v>
+      </c>
+      <c r="I36" t="s">
+        <v>341</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="N36" t="s">
+        <v>139</v>
+      </c>
+      <c r="O36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A37" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="H36" t="s">
-        <v>140</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="H37" t="s">
+        <v>140</v>
+      </c>
+      <c r="I37" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="N37" t="s">
+        <v>136</v>
+      </c>
+      <c r="O37" t="s">
         <v>319</v>
       </c>
-      <c r="N36" t="s">
-        <v>136</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="Q37" t="s">
         <v>320</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="12.75" hidden="1">
-      <c r="A37" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="12.75" hidden="1">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="12.75" hidden="1">
       <c r="A39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="N39" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="O39" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="12.75" hidden="1">
       <c r="A40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="E40" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>283</v>
+        <v>218</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O40" s="18" t="s">
         <v>142</v>
       </c>
       <c r="P40" s="18"/>
+      <c r="Q40" s="18" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="41" spans="1:17" ht="12.75" hidden="1">
       <c r="A41" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P41" s="18"/>
     </row>
     <row r="42" spans="1:17" ht="12.75" hidden="1">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="12.75" hidden="1">
       <c r="A43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="12.75" hidden="1">
+      <c r="A44" s="2" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I44" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="N44" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="O44" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="15.75" hidden="1" customHeight="1">
@@ -2595,35 +2772,33 @@
         <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>291</v>
+      <c r="E45" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="N45" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O45" s="18" t="s">
-        <v>142</v>
-      </c>
+      <c r="O45" s="18"/>
       <c r="P45" s="18"/>
       <c r="Q45" s="18" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15.75" hidden="1" customHeight="1">
@@ -2631,7 +2806,7 @@
         <v>68</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>150</v>
@@ -2639,32 +2814,26 @@
       <c r="D46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="18" t="s">
-        <v>310</v>
+      <c r="E46" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>146</v>
+        <v>309</v>
       </c>
       <c r="N46" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O46" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P46" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q46" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+    </row>
+    <row r="47" spans="1:17" ht="140.25" hidden="1">
       <c r="A47" s="14" t="s">
         <v>68</v>
       </c>
@@ -2675,16 +2844,19 @@
         <v>70</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>153</v>
+        <v>165</v>
+      </c>
+      <c r="K47" s="23" t="s">
+        <v>349</v>
       </c>
       <c r="N47" s="18" t="s">
         <v>136</v>
@@ -2693,15 +2865,20 @@
         <v>142</v>
       </c>
       <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q47" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="114.75" hidden="1">
       <c r="A48" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="C48" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="D48" s="2" t="s">
         <v>70</v>
       </c>
@@ -2712,17 +2889,26 @@
         <v>140</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>312</v>
+        <v>147</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>311</v>
+        <v>146</v>
+      </c>
+      <c r="K48" s="23" t="s">
+        <v>350</v>
       </c>
       <c r="N48" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
+      <c r="O48" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q48" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="49" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="14" t="s">
@@ -2734,14 +2920,17 @@
       <c r="D49" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="E49" s="18" t="s">
+        <v>310</v>
+      </c>
       <c r="H49" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N49" s="18" t="s">
         <v>136</v>
@@ -2750,9 +2939,7 @@
         <v>142</v>
       </c>
       <c r="P49" s="18"/>
-      <c r="Q49" s="18" t="s">
-        <v>151</v>
-      </c>
+      <c r="Q49" s="18"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="14" t="s">
@@ -2761,23 +2948,17 @@
       <c r="B50" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>149</v>
-      </c>
       <c r="D50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>297</v>
-      </c>
       <c r="H50" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N50" s="18" t="s">
         <v>136</v>
@@ -2787,49 +2968,47 @@
       </c>
       <c r="P50" s="18"/>
       <c r="Q50" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="344.25" hidden="1">
       <c r="A51" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>149</v>
+      <c r="B51" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="H51" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>299</v>
+        <v>311</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>351</v>
       </c>
       <c r="N51" s="18" t="s">
         <v>136</v>
       </c>
       <c r="O51" s="18"/>
       <c r="P51" s="18"/>
-      <c r="Q51" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q51" s="18"/>
+    </row>
+    <row r="52" spans="1:17" ht="165.75" hidden="1">
       <c r="A52" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>301</v>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>149</v>
@@ -2844,46 +3023,60 @@
         <v>140</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>302</v>
+        <v>155</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>303</v>
+        <v>156</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>352</v>
       </c>
       <c r="N52" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O52" s="18"/>
+      <c r="O52" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-    </row>
-    <row r="53" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q52" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="293.25" hidden="1">
       <c r="A53" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>69</v>
+      <c r="B53" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="E53" s="18" t="s">
+        <v>297</v>
+      </c>
       <c r="H53" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>159</v>
+        <v>300</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>160</v>
+        <v>299</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>353</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="O53" s="18" t="s">
-        <v>142</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O53" s="18"/>
       <c r="P53" s="18"/>
       <c r="Q53" s="18" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15.75" hidden="1" customHeight="1">
@@ -2900,10 +3093,10 @@
         <v>140</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N54" s="18" t="s">
         <v>139</v>
@@ -2912,7 +3105,9 @@
         <v>142</v>
       </c>
       <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
+      <c r="Q54" s="18" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="55" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="14" t="s">
@@ -2924,59 +3119,57 @@
       <c r="D55" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>304</v>
-      </c>
       <c r="H55" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O55" s="18" t="s">
         <v>142</v>
       </c>
       <c r="P55" s="18"/>
-      <c r="Q55" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="Q55" s="18"/>
+    </row>
+    <row r="56" spans="1:17" ht="114.75" hidden="1">
       <c r="A56" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="18"/>
+      <c r="B56" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="D56" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H56" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>292</v>
+        <v>303</v>
+      </c>
+      <c r="K56" s="23" t="s">
+        <v>354</v>
       </c>
       <c r="N56" s="18" t="s">
         <v>136</v>
       </c>
       <c r="O56" s="18"/>
-      <c r="P56" s="18" t="s">
-        <v>317</v>
-      </c>
+      <c r="P56" s="18"/>
       <c r="Q56" s="18"/>
     </row>
     <row r="57" spans="1:17" ht="15.75" hidden="1" customHeight="1">
@@ -2997,16 +3190,18 @@
         <v>140</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N57" s="18" t="s">
         <v>136</v>
       </c>
       <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
+      <c r="P57" s="18" t="s">
+        <v>316</v>
+      </c>
       <c r="Q57" s="18"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" hidden="1" customHeight="1">
@@ -3016,75 +3211,78 @@
       <c r="B58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>150</v>
-      </c>
+      <c r="C58" s="18"/>
       <c r="D58" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E58" t="s">
-        <v>168</v>
+      <c r="E58" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>170</v>
+        <v>296</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>169</v>
+        <v>295</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="O58" s="18" t="s">
-        <v>142</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O58" s="18"/>
       <c r="P58" s="18"/>
       <c r="Q58" s="18"/>
     </row>
     <row r="59" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A59" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="H59" t="s">
-        <v>130</v>
+      <c r="A59" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O59" s="18" t="s">
         <v>142</v>
       </c>
       <c r="P59" s="18"/>
-      <c r="Q59" s="18" t="s">
-        <v>174</v>
-      </c>
+      <c r="Q59" s="18"/>
     </row>
     <row r="60" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="17" t="s">
         <v>177</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H60" t="s">
         <v>130</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="N60" s="18" t="s">
         <v>136</v>
@@ -3094,7 +3292,7 @@
       </c>
       <c r="P60" s="18"/>
       <c r="Q60" s="18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="15.75" hidden="1" customHeight="1">
@@ -3102,39 +3300,43 @@
         <v>177</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>140</v>
+        <v>183</v>
+      </c>
+      <c r="H61" t="s">
+        <v>130</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O61" s="18" t="s">
         <v>142</v>
       </c>
       <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
+      <c r="Q61" s="18" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="62" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A62" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E62" s="18"/>
+      <c r="E62" s="18" t="s">
+        <v>186</v>
+      </c>
       <c r="H62" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N62" s="18" t="s">
         <v>139</v>
@@ -3154,10 +3356,10 @@
         <v>140</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N63" s="18" t="s">
         <v>139</v>
@@ -3166,6 +3368,7 @@
         <v>142</v>
       </c>
       <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
     </row>
     <row r="64" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="17" t="s">
@@ -3175,11 +3378,11 @@
       <c r="H64" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="I64" t="s">
-        <v>192</v>
-      </c>
-      <c r="J64" s="15" t="s">
-        <v>191</v>
+      <c r="I64" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>189</v>
       </c>
       <c r="N64" s="18" t="s">
         <v>139</v>
@@ -3193,44 +3396,39 @@
       <c r="A65" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="18"/>
+      <c r="H65" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I65" t="s">
+        <v>192</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="N65" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O65" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P65" s="18"/>
+    </row>
+    <row r="66" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A66" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="H65" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I65" s="18" t="s">
+      <c r="H66" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="J65" s="16" t="s">
+      <c r="J66" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="N65" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="O65" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="H66" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I66" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>201</v>
       </c>
       <c r="N66" s="18" t="s">
         <v>136</v>
@@ -3240,7 +3438,7 @@
       </c>
       <c r="P66" s="18"/>
       <c r="Q66" s="18" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="15.75" hidden="1" customHeight="1">
@@ -3248,16 +3446,16 @@
         <v>53</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H67" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N67" s="18" t="s">
         <v>136</v>
@@ -3266,27 +3464,28 @@
         <v>142</v>
       </c>
       <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
+      <c r="Q67" s="18" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="68" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="F68" s="2"/>
+        <v>206</v>
+      </c>
       <c r="H68" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O68" s="18" t="s">
         <v>142</v>
@@ -3294,25 +3493,25 @@
       <c r="P68" s="18"/>
       <c r="Q68" s="18"/>
     </row>
-    <row r="69" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+    <row r="69" spans="1:17" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F69" s="2"/>
       <c r="H69" s="18" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N69" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O69" s="18" t="s">
         <v>142</v>
@@ -3320,29 +3519,25 @@
       <c r="P69" s="18"/>
       <c r="Q69" s="18"/>
     </row>
-    <row r="70" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+    <row r="70" spans="1:17" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E70" t="s">
-        <v>225</v>
-      </c>
-      <c r="F70" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F70" s="2"/>
       <c r="H70" s="18" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="N70" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O70" s="18" t="s">
         <v>142</v>
@@ -3352,19 +3547,24 @@
     </row>
     <row r="71" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E71" s="18" t="s">
-        <v>235</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" s="17"/>
       <c r="H71" s="18" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="N71" s="18" t="s">
         <v>139</v>
@@ -3379,56 +3579,56 @@
       <c r="A72" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
       <c r="E72" s="18" t="s">
         <v>235</v>
       </c>
       <c r="H72" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="N72" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="O72" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+    </row>
+    <row r="73" spans="1:17" ht="15.75" hidden="1" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="H73" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I72" s="18" t="s">
+      <c r="I73" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="J72" s="16" t="s">
+      <c r="J73" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="N72" s="18" t="s">
+      <c r="N73" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="O72" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18" t="s">
+      <c r="O73" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" ht="15.75" hidden="1" customHeight="1">
-      <c r="A73" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I73" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="J73" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="N73" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="O73" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
     </row>
     <row r="74" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A74" s="17" t="s">
@@ -3441,10 +3641,10 @@
         <v>140</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N74" s="18" t="s">
         <v>139</v>
@@ -3453,22 +3653,23 @@
         <v>142</v>
       </c>
       <c r="P74" s="18"/>
-    </row>
-    <row r="75" spans="1:17" ht="15.75" customHeight="1">
+      <c r="Q74" s="18"/>
+    </row>
+    <row r="75" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A75" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="E75" t="s">
-        <v>250</v>
-      </c>
-      <c r="H75" t="s">
-        <v>130</v>
+        <v>241</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N75" s="18" t="s">
         <v>139</v>
@@ -3478,21 +3679,21 @@
       </c>
       <c r="P75" s="18"/>
     </row>
-    <row r="76" spans="1:17" ht="15.75" customHeight="1">
+    <row r="76" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A76" s="17" t="s">
         <v>247</v>
       </c>
       <c r="E76" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H76" t="s">
         <v>130</v>
       </c>
-      <c r="I76" t="s">
-        <v>252</v>
+      <c r="I76" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N76" s="18" t="s">
         <v>139</v>
@@ -3502,21 +3703,21 @@
       </c>
       <c r="P76" s="18"/>
     </row>
-    <row r="77" spans="1:17" ht="15.75" customHeight="1">
+    <row r="77" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A77" s="17" t="s">
         <v>247</v>
       </c>
       <c r="E77" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H77" t="s">
         <v>130</v>
       </c>
       <c r="I77" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N77" s="18" t="s">
         <v>139</v>
@@ -3526,21 +3727,21 @@
       </c>
       <c r="P77" s="18"/>
     </row>
-    <row r="78" spans="1:17" ht="15.75" customHeight="1">
+    <row r="78" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A78" s="17" t="s">
         <v>247</v>
       </c>
       <c r="E78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H78" t="s">
         <v>130</v>
       </c>
       <c r="I78" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N78" s="18" t="s">
         <v>139</v>
@@ -3550,21 +3751,21 @@
       </c>
       <c r="P78" s="18"/>
     </row>
-    <row r="79" spans="1:17" ht="15.75" customHeight="1">
+    <row r="79" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A79" s="17" t="s">
         <v>247</v>
       </c>
       <c r="E79" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H79" t="s">
         <v>130</v>
       </c>
       <c r="I79" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N79" s="18" t="s">
         <v>139</v>
@@ -3574,21 +3775,21 @@
       </c>
       <c r="P79" s="18"/>
     </row>
-    <row r="80" spans="1:17" ht="15.75" customHeight="1">
+    <row r="80" spans="1:17" ht="15.75" hidden="1" customHeight="1">
       <c r="A80" s="17" t="s">
         <v>247</v>
       </c>
       <c r="E80" t="s">
-        <v>268</v>
-      </c>
-      <c r="H80" s="18" t="s">
-        <v>140</v>
+        <v>262</v>
+      </c>
+      <c r="H80" t="s">
+        <v>130</v>
       </c>
       <c r="I80" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J80" s="16" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="N80" s="18" t="s">
         <v>139</v>
@@ -3598,21 +3799,21 @@
       </c>
       <c r="P80" s="18"/>
     </row>
-    <row r="81" spans="1:16" ht="15.75" customHeight="1">
+    <row r="81" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="17" t="s">
         <v>247</v>
       </c>
       <c r="E81" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H81" s="18" t="s">
         <v>140</v>
       </c>
       <c r="I81" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N81" s="18" t="s">
         <v>139</v>
@@ -3622,21 +3823,21 @@
       </c>
       <c r="P81" s="18"/>
     </row>
-    <row r="82" spans="1:16" ht="15.75" customHeight="1">
+    <row r="82" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A82" s="17" t="s">
         <v>247</v>
       </c>
       <c r="E82" t="s">
-        <v>274</v>
-      </c>
-      <c r="H82" t="s">
-        <v>217</v>
+        <v>265</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="I82" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="N82" s="18" t="s">
         <v>139</v>
@@ -3646,21 +3847,21 @@
       </c>
       <c r="P82" s="18"/>
     </row>
-    <row r="83" spans="1:16" ht="15.75" customHeight="1">
+    <row r="83" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A83" s="17" t="s">
         <v>247</v>
       </c>
       <c r="E83" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H83" t="s">
         <v>217</v>
       </c>
       <c r="I83" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N83" s="18" t="s">
         <v>139</v>
@@ -3671,20 +3872,20 @@
       <c r="P83" s="18"/>
     </row>
     <row r="84" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F84" t="s">
-        <v>84</v>
-      </c>
-      <c r="H84" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>285</v>
+      <c r="A84" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84" t="s">
+        <v>277</v>
+      </c>
+      <c r="H84" t="s">
+        <v>217</v>
+      </c>
+      <c r="I84" t="s">
+        <v>275</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="N84" s="18" t="s">
         <v>139</v>
@@ -3702,13 +3903,13 @@
         <v>84</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="N85" s="18" t="s">
         <v>139</v>
@@ -3719,29 +3920,28 @@
       <c r="P85" s="18"/>
     </row>
     <row r="86" spans="1:16" ht="15.75" hidden="1" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="H86" t="s">
-        <v>140</v>
-      </c>
-      <c r="I86" t="s">
-        <v>322</v>
-      </c>
-      <c r="J86" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="N86" t="s">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I86" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="J86" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="N86" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="O86" t="s">
-        <v>320</v>
-      </c>
+      <c r="O86" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P86" s="18"/>
     </row>
     <row r="87" spans="1:16" ht="15.75" hidden="1" customHeight="1">
       <c r="A87" s="14" t="s">
@@ -3756,16 +3956,16 @@
         <v>140</v>
       </c>
       <c r="I87" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="N87" t="s">
         <v>139</v>
       </c>
       <c r="O87" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="15.75" hidden="1" customHeight="1">
@@ -3781,16 +3981,16 @@
         <v>140</v>
       </c>
       <c r="I88" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N88" t="s">
         <v>139</v>
       </c>
       <c r="O88" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="15.75" hidden="1" customHeight="1">
@@ -3806,16 +4006,16 @@
         <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="N89" t="s">
         <v>139</v>
       </c>
       <c r="O89" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="15.75" hidden="1" customHeight="1">
@@ -3831,16 +4031,16 @@
         <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="N90" t="s">
         <v>139</v>
       </c>
       <c r="O90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="15.75" hidden="1" customHeight="1">
@@ -3856,16 +4056,16 @@
         <v>140</v>
       </c>
       <c r="I91" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="N91" t="s">
         <v>139</v>
       </c>
       <c r="O91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="15.75" hidden="1" customHeight="1">
@@ -3881,97 +4081,126 @@
         <v>140</v>
       </c>
       <c r="I92" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="N92" t="s">
         <v>139</v>
       </c>
       <c r="O92" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="15.75" hidden="1" customHeight="1">
+      <c r="A93" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="H93" t="s">
+        <v>140</v>
+      </c>
+      <c r="I93" t="s">
+        <v>338</v>
+      </c>
+      <c r="J93" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="N93" t="s">
+        <v>139</v>
+      </c>
+      <c r="O93" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Q92" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <autoFilter ref="A4:Q93" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Tree"/>
+        <filter val="Sliding  Window"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A27:Q58">
+      <sortCondition ref="E4:E93"/>
+    </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="J26" r:id="rId2" xr:uid="{6FE229EF-6142-4FF8-8C7F-F45A98A56AE0}"/>
-    <hyperlink ref="J44" r:id="rId3" xr:uid="{C79B168A-C3B3-45BC-9D5D-E2BB702ACF7C}"/>
-    <hyperlink ref="J45" r:id="rId4" xr:uid="{D7F1C62B-E060-4687-8A88-3BBDCBBBE9D5}"/>
-    <hyperlink ref="J46" r:id="rId5" xr:uid="{367299A1-8B8B-4295-96A1-34916F004B1C}"/>
-    <hyperlink ref="J47" r:id="rId6" xr:uid="{D09FF0AE-8898-4C3C-91F9-91D39B0EE7D4}"/>
-    <hyperlink ref="J49" r:id="rId7" xr:uid="{21FF7C3F-F43E-4E4B-8030-F92111A9C7C4}"/>
-    <hyperlink ref="J50" r:id="rId8" xr:uid="{C3A0A451-232F-4437-A167-464565845DA1}"/>
-    <hyperlink ref="J53" r:id="rId9" xr:uid="{A9EF6C77-8D93-4861-A266-E6A8B9016219}"/>
-    <hyperlink ref="J54" r:id="rId10" xr:uid="{1B1BB03C-BFF2-43B0-B87A-1EA5B3757BFD}"/>
-    <hyperlink ref="J55" r:id="rId11" xr:uid="{CBC5ACAD-16E0-46D3-ADB0-EB6EEEA3B506}"/>
-    <hyperlink ref="J28" r:id="rId12" xr:uid="{4ECE2808-9FAC-4542-82B9-5C2D9F5604B2}"/>
-    <hyperlink ref="J58" r:id="rId13" xr:uid="{2258A3D7-F7A8-46DD-8038-10D20D199086}"/>
+    <hyperlink ref="J27" r:id="rId2" xr:uid="{6FE229EF-6142-4FF8-8C7F-F45A98A56AE0}"/>
+    <hyperlink ref="J29" r:id="rId3" xr:uid="{C79B168A-C3B3-45BC-9D5D-E2BB702ACF7C}"/>
+    <hyperlink ref="J30" r:id="rId4" xr:uid="{D7F1C62B-E060-4687-8A88-3BBDCBBBE9D5}"/>
+    <hyperlink ref="J48" r:id="rId5" xr:uid="{367299A1-8B8B-4295-96A1-34916F004B1C}"/>
+    <hyperlink ref="J49" r:id="rId6" xr:uid="{D09FF0AE-8898-4C3C-91F9-91D39B0EE7D4}"/>
+    <hyperlink ref="J50" r:id="rId7" xr:uid="{21FF7C3F-F43E-4E4B-8030-F92111A9C7C4}"/>
+    <hyperlink ref="J52" r:id="rId8" xr:uid="{C3A0A451-232F-4437-A167-464565845DA1}"/>
+    <hyperlink ref="J54" r:id="rId9" xr:uid="{A9EF6C77-8D93-4861-A266-E6A8B9016219}"/>
+    <hyperlink ref="J55" r:id="rId10" xr:uid="{1B1BB03C-BFF2-43B0-B87A-1EA5B3757BFD}"/>
+    <hyperlink ref="J47" r:id="rId11" xr:uid="{CBC5ACAD-16E0-46D3-ADB0-EB6EEEA3B506}"/>
+    <hyperlink ref="J31" r:id="rId12" xr:uid="{4ECE2808-9FAC-4542-82B9-5C2D9F5604B2}"/>
+    <hyperlink ref="J59" r:id="rId13" xr:uid="{2258A3D7-F7A8-46DD-8038-10D20D199086}"/>
     <hyperlink ref="J14" r:id="rId14" xr:uid="{F2A73131-872E-4E2E-99CA-B0CAFA85C074}"/>
-    <hyperlink ref="J59" r:id="rId15" xr:uid="{B22658B6-80E0-4528-A426-689D11DCEEDF}"/>
-    <hyperlink ref="J60" r:id="rId16" xr:uid="{3BC8D58B-AE15-46D7-8ECA-ED13FD12D011}"/>
-    <hyperlink ref="J61" r:id="rId17" xr:uid="{8BD11E9A-B48C-4867-8AA2-D77F45CB7D01}"/>
-    <hyperlink ref="J62" r:id="rId18" xr:uid="{61C3E937-D92B-4AA3-ADBC-66FDC7F33C3D}"/>
-    <hyperlink ref="J63" r:id="rId19" xr:uid="{445AA0F1-7A74-4184-B5CC-13C962550712}"/>
-    <hyperlink ref="J64" r:id="rId20" xr:uid="{FC5266CA-93BA-4116-9AF5-E4AC6417400D}"/>
-    <hyperlink ref="J65" r:id="rId21" xr:uid="{8A6C7D54-159A-4C1A-B994-D1983702376F}"/>
+    <hyperlink ref="J60" r:id="rId15" xr:uid="{B22658B6-80E0-4528-A426-689D11DCEEDF}"/>
+    <hyperlink ref="J61" r:id="rId16" xr:uid="{3BC8D58B-AE15-46D7-8ECA-ED13FD12D011}"/>
+    <hyperlink ref="J62" r:id="rId17" xr:uid="{8BD11E9A-B48C-4867-8AA2-D77F45CB7D01}"/>
+    <hyperlink ref="J63" r:id="rId18" xr:uid="{61C3E937-D92B-4AA3-ADBC-66FDC7F33C3D}"/>
+    <hyperlink ref="J64" r:id="rId19" xr:uid="{445AA0F1-7A74-4184-B5CC-13C962550712}"/>
+    <hyperlink ref="J65" r:id="rId20" xr:uid="{FC5266CA-93BA-4116-9AF5-E4AC6417400D}"/>
+    <hyperlink ref="J66" r:id="rId21" xr:uid="{8A6C7D54-159A-4C1A-B994-D1983702376F}"/>
     <hyperlink ref="J11" r:id="rId22" xr:uid="{30476345-24B9-4A88-A164-4E12342C931A}"/>
-    <hyperlink ref="J66" r:id="rId23" xr:uid="{08D9DDBE-4FDB-438D-883D-54A27425DE65}"/>
-    <hyperlink ref="J67" r:id="rId24" xr:uid="{FF820546-BFB1-46C4-9355-6EBD13C9C59E}"/>
-    <hyperlink ref="J15" r:id="rId25" xr:uid="{7BFBF960-8769-481D-97A9-2002C0C1D736}"/>
-    <hyperlink ref="J68" r:id="rId26" xr:uid="{F8824C8A-75A7-4C08-9A10-0EFE13C9250D}"/>
-    <hyperlink ref="J69" r:id="rId27" xr:uid="{B45CE05B-86A7-4835-BEBD-1ACDB189E89A}"/>
-    <hyperlink ref="J39" r:id="rId28" xr:uid="{1320A040-9264-4DAE-8296-F7C0DF50162B}"/>
+    <hyperlink ref="J67" r:id="rId23" xr:uid="{08D9DDBE-4FDB-438D-883D-54A27425DE65}"/>
+    <hyperlink ref="J68" r:id="rId24" xr:uid="{FF820546-BFB1-46C4-9355-6EBD13C9C59E}"/>
+    <hyperlink ref="J16" r:id="rId25" xr:uid="{7BFBF960-8769-481D-97A9-2002C0C1D736}"/>
+    <hyperlink ref="J69" r:id="rId26" xr:uid="{F8824C8A-75A7-4C08-9A10-0EFE13C9250D}"/>
+    <hyperlink ref="J70" r:id="rId27" xr:uid="{B45CE05B-86A7-4835-BEBD-1ACDB189E89A}"/>
+    <hyperlink ref="J40" r:id="rId28" xr:uid="{1320A040-9264-4DAE-8296-F7C0DF50162B}"/>
     <hyperlink ref="J5" r:id="rId29" xr:uid="{1749DFAF-D758-476F-9A7F-E82EC9910406}"/>
-    <hyperlink ref="J70" r:id="rId30" xr:uid="{93795F3A-FD40-4D05-801C-B5C20EB76402}"/>
+    <hyperlink ref="J71" r:id="rId30" xr:uid="{93795F3A-FD40-4D05-801C-B5C20EB76402}"/>
     <hyperlink ref="J13" r:id="rId31" xr:uid="{7C5E4D4B-4674-4E7D-8D08-26F946ECC1FB}"/>
     <hyperlink ref="J8" r:id="rId32" xr:uid="{DDDC26B0-5DD7-49EE-8E3C-B2E9873FEF58}"/>
-    <hyperlink ref="J71" r:id="rId33" xr:uid="{EDD2AAF4-7C71-47A0-96CB-AB8E1DCF1F91}"/>
-    <hyperlink ref="J72" r:id="rId34" xr:uid="{4EE70842-A496-47C8-8098-DB77B1EBE861}"/>
-    <hyperlink ref="J73" r:id="rId35" xr:uid="{390D7BD3-39A4-457D-B6F1-37F69CFB234D}"/>
-    <hyperlink ref="J74" r:id="rId36" xr:uid="{0A7C3064-8D04-4C96-A035-4EE29B199FE3}"/>
-    <hyperlink ref="J75" r:id="rId37" xr:uid="{6F6E7001-9B43-4846-8A56-440BE9A3BC92}"/>
-    <hyperlink ref="J76" r:id="rId38" xr:uid="{84A39B52-7562-4C8D-9CB0-E45873906FD6}"/>
-    <hyperlink ref="J77" r:id="rId39" xr:uid="{60D8930D-5E92-41F0-9BCC-3CE79758E12A}"/>
-    <hyperlink ref="J78" r:id="rId40" xr:uid="{08CF7C5C-DC22-40DE-A4AB-B91FD2994755}"/>
-    <hyperlink ref="J79" r:id="rId41" xr:uid="{2CC3B103-9749-4A7D-B073-0A08D10C6036}"/>
-    <hyperlink ref="J80" r:id="rId42" xr:uid="{4B186235-5B68-4933-B19A-D9FBA7A2F332}"/>
-    <hyperlink ref="J81" r:id="rId43" xr:uid="{3D7BAA61-051B-4E54-A8AC-FF9EBFA22234}"/>
-    <hyperlink ref="J82" r:id="rId44" xr:uid="{0ADC6DFE-2CE0-451C-ACDB-964D40ECBA3C}"/>
-    <hyperlink ref="J16" r:id="rId45" xr:uid="{440876B8-DCFC-43FE-93DC-96DC46FE7AAD}"/>
-    <hyperlink ref="J83" r:id="rId46" xr:uid="{F5C66545-EA47-4369-9D27-713BA9909825}"/>
-    <hyperlink ref="J21" r:id="rId47" xr:uid="{905058F5-BD84-4938-95D9-2E44A080C80A}"/>
-    <hyperlink ref="J40" r:id="rId48" xr:uid="{80D29D06-4752-40E1-9A2B-4F5A3C7FF7BF}"/>
-    <hyperlink ref="J84" r:id="rId49" xr:uid="{50F3DCFE-49AC-4427-AC99-FE63ADE551D8}"/>
-    <hyperlink ref="J85" r:id="rId50" xr:uid="{763B90EF-85D7-4B6F-8967-EF99A3F8A3EA}"/>
-    <hyperlink ref="J27" r:id="rId51" xr:uid="{6725C166-C311-4068-A72F-EB2D4DAF6CB1}"/>
-    <hyperlink ref="J56" r:id="rId52" xr:uid="{24BC9B84-BE63-4380-84C0-2A518DE478B3}"/>
-    <hyperlink ref="J57" r:id="rId53" xr:uid="{BD9AE522-7F93-4F4C-B70D-BAE4A91F8EEE}"/>
-    <hyperlink ref="J51" r:id="rId54" xr:uid="{6BC5EB10-6E0C-49DF-82D6-D274FFEE7825}"/>
-    <hyperlink ref="J52" r:id="rId55" xr:uid="{AEBD6CA6-3C8D-479D-BB8F-01041CC03115}"/>
-    <hyperlink ref="J30" r:id="rId56" xr:uid="{62AA72AF-E376-49EE-9653-9FD7121946A3}"/>
-    <hyperlink ref="J48" r:id="rId57" xr:uid="{66E9064E-A2B6-441D-8064-A154371FB282}"/>
-    <hyperlink ref="J86" r:id="rId58" xr:uid="{A422E696-6D1A-440A-8762-BE615807567A}"/>
-    <hyperlink ref="J34" r:id="rId59" xr:uid="{AABCDAD9-F74D-4664-83F3-2D90D9E8F9DB}"/>
-    <hyperlink ref="K34" r:id="rId60" xr:uid="{792BE23B-BB85-40C5-A6C7-C2FDBC6E1590}"/>
-    <hyperlink ref="J87" r:id="rId61" xr:uid="{BC9815E3-64B5-4C79-BD84-6535B74A3D14}"/>
-    <hyperlink ref="J88" r:id="rId62" xr:uid="{162F682A-A191-4030-9479-5A10D40E836B}"/>
-    <hyperlink ref="J89" r:id="rId63" xr:uid="{BD262D1D-88C7-4EDC-893F-F91918EAD755}"/>
-    <hyperlink ref="J90" r:id="rId64" xr:uid="{7DEF403A-658C-46AD-911C-F0DDE85BF92E}"/>
-    <hyperlink ref="J91" r:id="rId65" xr:uid="{FD96565A-4DD5-4183-9653-AB2173017735}"/>
-    <hyperlink ref="J92" r:id="rId66" xr:uid="{AAD7E6E5-CD59-41B1-8F88-E730BA46C5A2}"/>
-    <hyperlink ref="J35" r:id="rId67" xr:uid="{F74A9764-1697-4590-8560-C6049FC4CF63}"/>
+    <hyperlink ref="J72" r:id="rId33" xr:uid="{EDD2AAF4-7C71-47A0-96CB-AB8E1DCF1F91}"/>
+    <hyperlink ref="J73" r:id="rId34" xr:uid="{4EE70842-A496-47C8-8098-DB77B1EBE861}"/>
+    <hyperlink ref="J74" r:id="rId35" xr:uid="{390D7BD3-39A4-457D-B6F1-37F69CFB234D}"/>
+    <hyperlink ref="J75" r:id="rId36" xr:uid="{0A7C3064-8D04-4C96-A035-4EE29B199FE3}"/>
+    <hyperlink ref="J76" r:id="rId37" xr:uid="{6F6E7001-9B43-4846-8A56-440BE9A3BC92}"/>
+    <hyperlink ref="J77" r:id="rId38" xr:uid="{84A39B52-7562-4C8D-9CB0-E45873906FD6}"/>
+    <hyperlink ref="J78" r:id="rId39" xr:uid="{60D8930D-5E92-41F0-9BCC-3CE79758E12A}"/>
+    <hyperlink ref="J79" r:id="rId40" xr:uid="{08CF7C5C-DC22-40DE-A4AB-B91FD2994755}"/>
+    <hyperlink ref="J80" r:id="rId41" xr:uid="{2CC3B103-9749-4A7D-B073-0A08D10C6036}"/>
+    <hyperlink ref="J81" r:id="rId42" xr:uid="{4B186235-5B68-4933-B19A-D9FBA7A2F332}"/>
+    <hyperlink ref="J82" r:id="rId43" xr:uid="{3D7BAA61-051B-4E54-A8AC-FF9EBFA22234}"/>
+    <hyperlink ref="J83" r:id="rId44" xr:uid="{0ADC6DFE-2CE0-451C-ACDB-964D40ECBA3C}"/>
+    <hyperlink ref="J17" r:id="rId45" xr:uid="{440876B8-DCFC-43FE-93DC-96DC46FE7AAD}"/>
+    <hyperlink ref="J84" r:id="rId46" xr:uid="{F5C66545-EA47-4369-9D27-713BA9909825}"/>
+    <hyperlink ref="J22" r:id="rId47" xr:uid="{905058F5-BD84-4938-95D9-2E44A080C80A}"/>
+    <hyperlink ref="J41" r:id="rId48" xr:uid="{80D29D06-4752-40E1-9A2B-4F5A3C7FF7BF}"/>
+    <hyperlink ref="J85" r:id="rId49" xr:uid="{50F3DCFE-49AC-4427-AC99-FE63ADE551D8}"/>
+    <hyperlink ref="J86" r:id="rId50" xr:uid="{763B90EF-85D7-4B6F-8967-EF99A3F8A3EA}"/>
+    <hyperlink ref="J28" r:id="rId51" xr:uid="{6725C166-C311-4068-A72F-EB2D4DAF6CB1}"/>
+    <hyperlink ref="J57" r:id="rId52" xr:uid="{24BC9B84-BE63-4380-84C0-2A518DE478B3}"/>
+    <hyperlink ref="J58" r:id="rId53" xr:uid="{BD9AE522-7F93-4F4C-B70D-BAE4A91F8EEE}"/>
+    <hyperlink ref="J53" r:id="rId54" xr:uid="{6BC5EB10-6E0C-49DF-82D6-D274FFEE7825}"/>
+    <hyperlink ref="J56" r:id="rId55" xr:uid="{AEBD6CA6-3C8D-479D-BB8F-01041CC03115}"/>
+    <hyperlink ref="J46" r:id="rId56" xr:uid="{62AA72AF-E376-49EE-9653-9FD7121946A3}"/>
+    <hyperlink ref="J51" r:id="rId57" xr:uid="{66E9064E-A2B6-441D-8064-A154371FB282}"/>
+    <hyperlink ref="J87" r:id="rId58" xr:uid="{A422E696-6D1A-440A-8762-BE615807567A}"/>
+    <hyperlink ref="J35" r:id="rId59" xr:uid="{AABCDAD9-F74D-4664-83F3-2D90D9E8F9DB}"/>
+    <hyperlink ref="K35" r:id="rId60" xr:uid="{792BE23B-BB85-40C5-A6C7-C2FDBC6E1590}"/>
+    <hyperlink ref="J88" r:id="rId61" xr:uid="{BC9815E3-64B5-4C79-BD84-6535B74A3D14}"/>
+    <hyperlink ref="J89" r:id="rId62" xr:uid="{162F682A-A191-4030-9479-5A10D40E836B}"/>
+    <hyperlink ref="J90" r:id="rId63" xr:uid="{BD262D1D-88C7-4EDC-893F-F91918EAD755}"/>
+    <hyperlink ref="J91" r:id="rId64" xr:uid="{7DEF403A-658C-46AD-911C-F0DDE85BF92E}"/>
+    <hyperlink ref="J92" r:id="rId65" xr:uid="{FD96565A-4DD5-4183-9653-AB2173017735}"/>
+    <hyperlink ref="J93" r:id="rId66" xr:uid="{AAD7E6E5-CD59-41B1-8F88-E730BA46C5A2}"/>
+    <hyperlink ref="J36" r:id="rId67" xr:uid="{F74A9764-1697-4590-8560-C6049FC4CF63}"/>
+    <hyperlink ref="J15" r:id="rId68" xr:uid="{EBEE6DC4-62DD-43DC-BC45-6E976117D3A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId69"/>
 </worksheet>
 </file>
 
